--- a/data_month/zb/房地产/办公楼销售额.xlsx
+++ b/data_month/zb/房地产/办公楼销售额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:J243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,26 @@
           <t>办公楼销售额_累计增长</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>办公楼期房销售额</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>办公楼现房销售额</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>办公楼销售额</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -476,14 +491,19 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>58.72</v>
+        <v>6.39</v>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>6.39</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -491,14 +511,19 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>65.69</v>
+        <v>17.86</v>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>11.47</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -506,14 +531,19 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>174.02</v>
+        <v>23.36</v>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -521,14 +551,19 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>6.39</v>
+        <v>23.91</v>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0.5500000000000007</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -536,14 +571,19 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>17.86</v>
+        <v>32.93</v>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>9.02</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -551,14 +591,19 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>23.36</v>
+        <v>38.97</v>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>6.039999999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -566,14 +611,19 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>23.91</v>
+        <v>45.5</v>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>6.530000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -581,14 +631,19 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>32.93</v>
+        <v>51.87</v>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>6.369999999999997</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -596,14 +651,19 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>38.97</v>
+        <v>58.72</v>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>6.850000000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -611,14 +671,19 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>45.5</v>
+        <v>65.69</v>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>6.969999999999999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -626,14 +691,19 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>51.87</v>
+        <v>174.02</v>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>108.33</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -641,14 +711,19 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>84.92</v>
+        <v>18.32</v>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>18.32</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -656,14 +731,19 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>94.16</v>
+        <v>29.18</v>
       </c>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>10.86</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -671,14 +751,19 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>232.82</v>
+        <v>33.58</v>
       </c>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>4.399999999999999</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -686,14 +771,19 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>18.32</v>
+        <v>46.46</v>
       </c>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>12.88</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -701,14 +791,19 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>29.18</v>
+        <v>61.37</v>
       </c>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>14.91</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -716,14 +811,19 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>33.58</v>
+        <v>63.97</v>
       </c>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>2.600000000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -731,14 +831,19 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>46.46</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>9.489999999999995</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -746,14 +851,19 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>61.37</v>
+        <v>78.18000000000001</v>
       </c>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>4.720000000000013</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -761,14 +871,19 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>63.97</v>
+        <v>84.92</v>
       </c>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>6.739999999999995</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -776,14 +891,19 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>73.45999999999999</v>
+        <v>94.16</v>
       </c>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>9.239999999999995</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -791,14 +911,19 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>78.18000000000001</v>
+        <v>232.82</v>
       </c>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>138.66</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -806,14 +931,19 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>94.88</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>9.970000000000001</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -821,14 +951,19 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>106.46</v>
+        <v>33.6</v>
       </c>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>23.63</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -836,14 +971,19 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>221.28</v>
+        <v>34.04</v>
       </c>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0.4399999999999977</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
@@ -851,14 +991,19 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>9.970000000000001</v>
+        <v>47.41</v>
       </c>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>13.37</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -866,14 +1011,19 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>33.6</v>
+        <v>52.82</v>
       </c>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>5.410000000000004</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -881,14 +1031,19 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>34.04</v>
+        <v>59.8</v>
       </c>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>6.979999999999997</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -896,14 +1051,19 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>47.41</v>
+        <v>68.75</v>
       </c>
       <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>8.950000000000003</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -911,14 +1071,19 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>52.82</v>
+        <v>78.83</v>
       </c>
       <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>10.08</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -926,14 +1091,19 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>59.8</v>
+        <v>94.88</v>
       </c>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>16.05</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -941,14 +1111,19 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>68.75</v>
+        <v>106.46</v>
       </c>
       <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>11.58</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -956,14 +1131,19 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>78.83</v>
+        <v>221.28</v>
       </c>
       <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>114.82</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
@@ -971,14 +1151,19 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>124.14</v>
+        <v>18.65</v>
       </c>
       <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>18.65</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -986,14 +1171,19 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>135.28</v>
+        <v>32.75</v>
       </c>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -1001,14 +1191,19 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>256.11</v>
+        <v>45.94</v>
       </c>
       <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>13.19</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1016,14 +1211,19 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>18.65</v>
+        <v>54.75</v>
       </c>
       <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>8.810000000000002</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1031,14 +1231,19 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>32.75</v>
+        <v>78.12</v>
       </c>
       <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>23.37</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1046,14 +1251,19 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
-        <v>45.94</v>
+        <v>92.52</v>
       </c>
       <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>14.39999999999999</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1061,14 +1271,19 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
-        <v>54.75</v>
+        <v>100.95</v>
       </c>
       <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>8.430000000000007</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1076,14 +1291,19 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
-        <v>78.12</v>
+        <v>115</v>
       </c>
       <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>14.05</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
@@ -1091,14 +1311,19 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
-        <v>92.52</v>
+        <v>124.14</v>
       </c>
       <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>9.140000000000001</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1106,14 +1331,19 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
-        <v>100.95</v>
+        <v>135.28</v>
       </c>
       <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>11.14</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1121,14 +1351,19 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>115</v>
+        <v>256.11</v>
       </c>
       <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>120.83</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1136,16 +1371,21 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
-        <v>250.19</v>
+        <v>14.18</v>
       </c>
       <c r="G46" t="n">
-        <v>102.3</v>
+        <v>-24.5</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>14.18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1153,16 +1393,21 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>271.56</v>
+        <v>46.03</v>
       </c>
       <c r="G47" t="n">
-        <v>104.8</v>
+        <v>40.5</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>31.85</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1170,16 +1415,21 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
-        <v>383.32</v>
+        <v>76.73999999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>45.6</v>
+        <v>67.3</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>30.70999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1187,16 +1437,21 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>14.18</v>
+        <v>122.25</v>
       </c>
       <c r="G49" t="n">
-        <v>-24.5</v>
+        <v>123.3</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>45.51000000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1204,16 +1459,21 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>46.03</v>
+        <v>146.48</v>
       </c>
       <c r="G50" t="n">
-        <v>40.5</v>
+        <v>87.5</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>24.22999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1221,16 +1481,21 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
-        <v>76.73999999999999</v>
+        <v>220.67</v>
       </c>
       <c r="G51" t="n">
-        <v>67.3</v>
+        <v>138.7</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>74.19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1238,16 +1503,21 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
-        <v>122.25</v>
+        <v>237.24</v>
       </c>
       <c r="G52" t="n">
-        <v>123.3</v>
+        <v>136</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>16.57000000000002</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -1255,16 +1525,21 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>146.48</v>
+        <v>246.7</v>
       </c>
       <c r="G53" t="n">
-        <v>87.5</v>
+        <v>115.2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>9.45999999999998</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1272,16 +1547,21 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
-        <v>220.67</v>
+        <v>250.19</v>
       </c>
       <c r="G54" t="n">
-        <v>138.7</v>
+        <v>102.3</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3.490000000000009</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -1289,16 +1569,21 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
-        <v>237.24</v>
+        <v>271.56</v>
       </c>
       <c r="G55" t="n">
-        <v>136</v>
+        <v>104.8</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>21.37</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1306,73 +1591,87 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
-        <v>246.7</v>
+        <v>383.32</v>
       </c>
       <c r="G56" t="n">
-        <v>115.2</v>
+        <v>45.6</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>111.76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>345.48</v>
-      </c>
+          <t>2005-02</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="n">
-        <v>152.76</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
-        <v>498.24</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
+        <v>36.47</v>
+      </c>
+      <c r="G57" t="n">
+        <v>154.7</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>36.47</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>378.24</v>
-      </c>
+          <t>2005-03</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="n">
-        <v>173.4</v>
-      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>551.64</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+        <v>62.22</v>
+      </c>
+      <c r="G58" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>25.75</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>506.54</v>
-      </c>
+          <t>2005-04</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="n">
-        <v>266.74</v>
-      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
-        <v>773.28</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
+        <v>92.09999999999999</v>
+      </c>
+      <c r="G59" t="n">
+        <v>20</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>29.88</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -1380,16 +1679,21 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>36.47</v>
+        <v>108.77</v>
       </c>
       <c r="G60" t="n">
-        <v>154.7</v>
+        <v>-11</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>16.67</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
@@ -1397,16 +1701,21 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
-        <v>62.22</v>
+        <v>126.41</v>
       </c>
       <c r="G61" t="n">
-        <v>35.1</v>
+        <v>-13.7</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>17.64</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -1414,4499 +1723,6139 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
-        <v>92.09999999999999</v>
+        <v>233.01</v>
       </c>
       <c r="G62" t="n">
-        <v>20</v>
+        <v>5.6</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>106.6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
+          <t>2005-08</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>287.17</v>
+      </c>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="n">
+        <v>107.5</v>
+      </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
-        <v>108.77</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-11</v>
+        <v>394.67</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>287.17</v>
+      </c>
+      <c r="I63" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>161.66</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
+          <t>2005-09</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>308.27</v>
+      </c>
       <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="n">
+        <v>120.62</v>
+      </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>126.41</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-13.7</v>
+        <v>428.89</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>21.09999999999997</v>
+      </c>
+      <c r="I64" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="J64" t="n">
+        <v>34.21999999999997</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
+          <t>2005-10</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>345.48</v>
+      </c>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="n">
+        <v>152.76</v>
+      </c>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
-        <v>233.01</v>
-      </c>
-      <c r="G65" t="n">
-        <v>5.6</v>
+        <v>498.24</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>37.21000000000004</v>
+      </c>
+      <c r="I65" t="n">
+        <v>32.13999999999999</v>
+      </c>
+      <c r="J65" t="n">
+        <v>69.35000000000002</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>287.17</v>
+        <v>378.24</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>107.5</v>
+        <v>173.4</v>
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
-        <v>394.67</v>
+        <v>551.64</v>
       </c>
       <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>32.75999999999999</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20.64000000000001</v>
+      </c>
+      <c r="J66" t="n">
+        <v>53.39999999999998</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>308.27</v>
+        <v>506.54</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>120.62</v>
+        <v>266.74</v>
       </c>
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
-        <v>428.89</v>
+        <v>773.28</v>
       </c>
       <c r="G67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>93.34</v>
+      </c>
+      <c r="J67" t="n">
+        <v>221.64</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>472.75</v>
+        <v>87.47</v>
       </c>
       <c r="C68" t="n">
-        <v>33.2</v>
+        <v>84.7</v>
       </c>
       <c r="D68" t="n">
-        <v>183.95</v>
+        <v>30.66</v>
       </c>
       <c r="E68" t="n">
-        <v>5.5</v>
+        <v>102.8</v>
       </c>
       <c r="F68" t="n">
-        <v>656.7</v>
+        <v>118.13</v>
       </c>
       <c r="G68" t="n">
-        <v>24.1</v>
+        <v>89.09999999999999</v>
+      </c>
+      <c r="H68" t="n">
+        <v>87.47</v>
+      </c>
+      <c r="I68" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="J68" t="n">
+        <v>118.13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>541.13</v>
+        <v>116.63</v>
       </c>
       <c r="C69" t="n">
-        <v>31.6</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>197.46</v>
+        <v>53.69</v>
       </c>
       <c r="E69" t="n">
-        <v>2.9</v>
+        <v>98</v>
       </c>
       <c r="F69" t="n">
-        <v>738.58</v>
+        <v>170.32</v>
       </c>
       <c r="G69" t="n">
-        <v>22.5</v>
+        <v>91.09999999999999</v>
+      </c>
+      <c r="H69" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="I69" t="n">
+        <v>23.03</v>
+      </c>
+      <c r="J69" t="n">
+        <v>52.19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>702.79</v>
+        <v>151.25</v>
       </c>
       <c r="C70" t="n">
-        <v>28.5</v>
+        <v>42.1</v>
       </c>
       <c r="D70" t="n">
-        <v>280.34</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.9</v>
+        <v>79.8</v>
       </c>
       <c r="F70" t="n">
-        <v>983.12</v>
+        <v>218.99</v>
       </c>
       <c r="G70" t="n">
-        <v>18.1</v>
+        <v>52</v>
+      </c>
+      <c r="H70" t="n">
+        <v>34.62</v>
+      </c>
+      <c r="I70" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="J70" t="n">
+        <v>48.67000000000002</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>87.47</v>
+        <v>208.46</v>
       </c>
       <c r="C71" t="n">
-        <v>84.7</v>
+        <v>77.3</v>
       </c>
       <c r="D71" t="n">
-        <v>30.66</v>
+        <v>72.38</v>
       </c>
       <c r="E71" t="n">
-        <v>102.8</v>
+        <v>49.9</v>
       </c>
       <c r="F71" t="n">
-        <v>118.13</v>
+        <v>280.84</v>
       </c>
       <c r="G71" t="n">
-        <v>89.09999999999999</v>
+        <v>69.3</v>
+      </c>
+      <c r="H71" t="n">
+        <v>57.21000000000001</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4.640000000000001</v>
+      </c>
+      <c r="J71" t="n">
+        <v>61.84999999999997</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>116.63</v>
+        <v>272.88</v>
       </c>
       <c r="C72" t="n">
-        <v>88.09999999999999</v>
+        <v>54.4</v>
       </c>
       <c r="D72" t="n">
-        <v>53.69</v>
+        <v>111.61</v>
       </c>
       <c r="E72" t="n">
-        <v>98</v>
+        <v>92.8</v>
       </c>
       <c r="F72" t="n">
-        <v>170.32</v>
+        <v>384.49</v>
       </c>
       <c r="G72" t="n">
-        <v>91.09999999999999</v>
+        <v>63.6</v>
+      </c>
+      <c r="H72" t="n">
+        <v>64.41999999999999</v>
+      </c>
+      <c r="I72" t="n">
+        <v>39.23</v>
+      </c>
+      <c r="J72" t="n">
+        <v>103.65</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>151.25</v>
+        <v>321.59</v>
       </c>
       <c r="C73" t="n">
-        <v>42.1</v>
+        <v>54.2</v>
       </c>
       <c r="D73" t="n">
-        <v>67.73999999999999</v>
+        <v>126.53</v>
       </c>
       <c r="E73" t="n">
-        <v>79.8</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>218.99</v>
+        <v>448.13</v>
       </c>
       <c r="G73" t="n">
-        <v>52</v>
+        <v>58.4</v>
+      </c>
+      <c r="H73" t="n">
+        <v>48.70999999999998</v>
+      </c>
+      <c r="I73" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="J73" t="n">
+        <v>63.63999999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>208.46</v>
+        <v>358.46</v>
       </c>
       <c r="C74" t="n">
-        <v>77.3</v>
+        <v>47</v>
       </c>
       <c r="D74" t="n">
-        <v>72.38</v>
+        <v>150.36</v>
       </c>
       <c r="E74" t="n">
-        <v>49.9</v>
+        <v>8.4</v>
       </c>
       <c r="F74" t="n">
-        <v>280.84</v>
+        <v>508.82</v>
       </c>
       <c r="G74" t="n">
-        <v>69.3</v>
+        <v>33</v>
+      </c>
+      <c r="H74" t="n">
+        <v>36.87</v>
+      </c>
+      <c r="I74" t="n">
+        <v>23.83000000000001</v>
+      </c>
+      <c r="J74" t="n">
+        <v>60.69</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>272.88</v>
+        <v>403.73</v>
       </c>
       <c r="C75" t="n">
-        <v>54.4</v>
+        <v>48.4</v>
       </c>
       <c r="D75" t="n">
-        <v>111.61</v>
+        <v>165.49</v>
       </c>
       <c r="E75" t="n">
-        <v>92.8</v>
+        <v>3.7</v>
       </c>
       <c r="F75" t="n">
-        <v>384.49</v>
+        <v>569.22</v>
       </c>
       <c r="G75" t="n">
-        <v>63.6</v>
+        <v>31.8</v>
+      </c>
+      <c r="H75" t="n">
+        <v>45.27000000000004</v>
+      </c>
+      <c r="I75" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="J75" t="n">
+        <v>60.40000000000003</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>321.59</v>
+        <v>472.75</v>
       </c>
       <c r="C76" t="n">
-        <v>54.2</v>
+        <v>33.2</v>
       </c>
       <c r="D76" t="n">
-        <v>126.53</v>
+        <v>183.95</v>
       </c>
       <c r="E76" t="n">
-        <v>70.09999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="F76" t="n">
-        <v>448.13</v>
+        <v>656.7</v>
       </c>
       <c r="G76" t="n">
-        <v>58.4</v>
+        <v>24.1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>69.01999999999998</v>
+      </c>
+      <c r="I76" t="n">
+        <v>18.45999999999998</v>
+      </c>
+      <c r="J76" t="n">
+        <v>87.48000000000002</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>358.46</v>
+        <v>541.13</v>
       </c>
       <c r="C77" t="n">
-        <v>47</v>
+        <v>31.6</v>
       </c>
       <c r="D77" t="n">
-        <v>150.36</v>
+        <v>197.46</v>
       </c>
       <c r="E77" t="n">
-        <v>8.4</v>
+        <v>2.9</v>
       </c>
       <c r="F77" t="n">
-        <v>508.82</v>
+        <v>738.58</v>
       </c>
       <c r="G77" t="n">
-        <v>33</v>
+        <v>22.5</v>
+      </c>
+      <c r="H77" t="n">
+        <v>68.38</v>
+      </c>
+      <c r="I77" t="n">
+        <v>13.51000000000002</v>
+      </c>
+      <c r="J77" t="n">
+        <v>81.88</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>403.73</v>
+        <v>702.79</v>
       </c>
       <c r="C78" t="n">
-        <v>48.4</v>
+        <v>28.5</v>
       </c>
       <c r="D78" t="n">
-        <v>165.49</v>
+        <v>280.34</v>
       </c>
       <c r="E78" t="n">
-        <v>3.7</v>
+        <v>-1.9</v>
       </c>
       <c r="F78" t="n">
-        <v>569.22</v>
+        <v>983.12</v>
       </c>
       <c r="G78" t="n">
-        <v>31.8</v>
+        <v>18.1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>161.66</v>
+      </c>
+      <c r="I78" t="n">
+        <v>82.87999999999997</v>
+      </c>
+      <c r="J78" t="n">
+        <v>244.54</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>603.67</v>
+        <v>108.28</v>
       </c>
       <c r="C79" t="n">
-        <v>27.7</v>
+        <v>23.8</v>
       </c>
       <c r="D79" t="n">
-        <v>245.04</v>
+        <v>35.39</v>
       </c>
       <c r="E79" t="n">
-        <v>33.2</v>
+        <v>15.4</v>
       </c>
       <c r="F79" t="n">
-        <v>848.71</v>
+        <v>143.67</v>
       </c>
       <c r="G79" t="n">
-        <v>29.2</v>
+        <v>21.6</v>
+      </c>
+      <c r="H79" t="n">
+        <v>108.28</v>
+      </c>
+      <c r="I79" t="n">
+        <v>35.39</v>
+      </c>
+      <c r="J79" t="n">
+        <v>143.67</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>665.46</v>
+        <v>148.4</v>
       </c>
       <c r="C80" t="n">
-        <v>23</v>
+        <v>27.3</v>
       </c>
       <c r="D80" t="n">
-        <v>271.25</v>
+        <v>61.62</v>
       </c>
       <c r="E80" t="n">
-        <v>37.4</v>
+        <v>14.8</v>
       </c>
       <c r="F80" t="n">
-        <v>936.71</v>
+        <v>210.02</v>
       </c>
       <c r="G80" t="n">
-        <v>26.8</v>
+        <v>23.4</v>
+      </c>
+      <c r="H80" t="n">
+        <v>40.12</v>
+      </c>
+      <c r="I80" t="n">
+        <v>26.23</v>
+      </c>
+      <c r="J80" t="n">
+        <v>66.35000000000002</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>861.02</v>
+        <v>196.73</v>
       </c>
       <c r="C81" t="n">
-        <v>22.6</v>
+        <v>30.1</v>
       </c>
       <c r="D81" t="n">
-        <v>404.23</v>
+        <v>79.31</v>
       </c>
       <c r="E81" t="n">
-        <v>39.9</v>
+        <v>17.1</v>
       </c>
       <c r="F81" t="n">
-        <v>1265.24</v>
+        <v>276.03</v>
       </c>
       <c r="G81" t="n">
-        <v>27.6</v>
+        <v>26</v>
+      </c>
+      <c r="H81" t="n">
+        <v>48.32999999999998</v>
+      </c>
+      <c r="I81" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="J81" t="n">
+        <v>66.00999999999996</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>108.28</v>
+        <v>240.54</v>
       </c>
       <c r="C82" t="n">
-        <v>23.8</v>
+        <v>15.4</v>
       </c>
       <c r="D82" t="n">
-        <v>35.39</v>
+        <v>97.83</v>
       </c>
       <c r="E82" t="n">
-        <v>15.4</v>
+        <v>35.2</v>
       </c>
       <c r="F82" t="n">
-        <v>143.67</v>
+        <v>338.37</v>
       </c>
       <c r="G82" t="n">
-        <v>21.6</v>
+        <v>20.5</v>
+      </c>
+      <c r="H82" t="n">
+        <v>43.81</v>
+      </c>
+      <c r="I82" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="J82" t="n">
+        <v>62.34000000000003</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>148.4</v>
+        <v>329.49</v>
       </c>
       <c r="C83" t="n">
-        <v>27.3</v>
+        <v>20.7</v>
       </c>
       <c r="D83" t="n">
-        <v>61.62</v>
+        <v>125.04</v>
       </c>
       <c r="E83" t="n">
-        <v>14.8</v>
+        <v>12</v>
       </c>
       <c r="F83" t="n">
-        <v>210.02</v>
+        <v>454.52</v>
       </c>
       <c r="G83" t="n">
-        <v>23.4</v>
+        <v>18.2</v>
+      </c>
+      <c r="H83" t="n">
+        <v>88.95000000000002</v>
+      </c>
+      <c r="I83" t="n">
+        <v>27.21000000000001</v>
+      </c>
+      <c r="J83" t="n">
+        <v>116.15</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>196.73</v>
+        <v>395.84</v>
       </c>
       <c r="C84" t="n">
-        <v>30.1</v>
+        <v>23.1</v>
       </c>
       <c r="D84" t="n">
-        <v>79.31</v>
+        <v>149.6</v>
       </c>
       <c r="E84" t="n">
-        <v>17.1</v>
+        <v>18.2</v>
       </c>
       <c r="F84" t="n">
-        <v>276.03</v>
+        <v>545.4400000000001</v>
       </c>
       <c r="G84" t="n">
-        <v>26</v>
+        <v>21.7</v>
+      </c>
+      <c r="H84" t="n">
+        <v>66.34999999999997</v>
+      </c>
+      <c r="I84" t="n">
+        <v>24.55999999999999</v>
+      </c>
+      <c r="J84" t="n">
+        <v>90.92000000000007</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>240.54</v>
+        <v>457.44</v>
       </c>
       <c r="C85" t="n">
-        <v>15.4</v>
+        <v>27.6</v>
       </c>
       <c r="D85" t="n">
-        <v>97.83</v>
+        <v>179.77</v>
       </c>
       <c r="E85" t="n">
-        <v>35.2</v>
+        <v>19.6</v>
       </c>
       <c r="F85" t="n">
-        <v>338.37</v>
+        <v>637.21</v>
       </c>
       <c r="G85" t="n">
-        <v>20.5</v>
+        <v>25.2</v>
+      </c>
+      <c r="H85" t="n">
+        <v>61.60000000000002</v>
+      </c>
+      <c r="I85" t="n">
+        <v>30.17000000000002</v>
+      </c>
+      <c r="J85" t="n">
+        <v>91.76999999999998</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>329.49</v>
+        <v>539.51</v>
       </c>
       <c r="C86" t="n">
-        <v>20.7</v>
+        <v>33.6</v>
       </c>
       <c r="D86" t="n">
-        <v>125.04</v>
+        <v>216.13</v>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>30.6</v>
       </c>
       <c r="F86" t="n">
-        <v>454.52</v>
+        <v>755.64</v>
       </c>
       <c r="G86" t="n">
-        <v>18.2</v>
+        <v>32.8</v>
+      </c>
+      <c r="H86" t="n">
+        <v>82.06999999999999</v>
+      </c>
+      <c r="I86" t="n">
+        <v>36.35999999999999</v>
+      </c>
+      <c r="J86" t="n">
+        <v>118.4299999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>395.84</v>
+        <v>603.67</v>
       </c>
       <c r="C87" t="n">
-        <v>23.1</v>
+        <v>27.7</v>
       </c>
       <c r="D87" t="n">
-        <v>149.6</v>
+        <v>245.04</v>
       </c>
       <c r="E87" t="n">
-        <v>18.2</v>
+        <v>33.2</v>
       </c>
       <c r="F87" t="n">
-        <v>545.4400000000001</v>
+        <v>848.71</v>
       </c>
       <c r="G87" t="n">
-        <v>21.7</v>
+        <v>29.2</v>
+      </c>
+      <c r="H87" t="n">
+        <v>64.15999999999997</v>
+      </c>
+      <c r="I87" t="n">
+        <v>28.91</v>
+      </c>
+      <c r="J87" t="n">
+        <v>93.07000000000005</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>457.44</v>
+        <v>665.46</v>
       </c>
       <c r="C88" t="n">
-        <v>27.6</v>
+        <v>23</v>
       </c>
       <c r="D88" t="n">
-        <v>179.77</v>
+        <v>271.25</v>
       </c>
       <c r="E88" t="n">
-        <v>19.6</v>
+        <v>37.4</v>
       </c>
       <c r="F88" t="n">
-        <v>637.21</v>
+        <v>936.71</v>
       </c>
       <c r="G88" t="n">
-        <v>25.2</v>
+        <v>26.8</v>
+      </c>
+      <c r="H88" t="n">
+        <v>61.79000000000008</v>
+      </c>
+      <c r="I88" t="n">
+        <v>26.21000000000001</v>
+      </c>
+      <c r="J88" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>539.51</v>
+        <v>861.02</v>
       </c>
       <c r="C89" t="n">
-        <v>33.6</v>
+        <v>22.6</v>
       </c>
       <c r="D89" t="n">
-        <v>216.13</v>
+        <v>404.23</v>
       </c>
       <c r="E89" t="n">
-        <v>30.6</v>
+        <v>39.9</v>
       </c>
       <c r="F89" t="n">
-        <v>755.64</v>
+        <v>1265.24</v>
       </c>
       <c r="G89" t="n">
-        <v>32.8</v>
+        <v>27.6</v>
+      </c>
+      <c r="H89" t="n">
+        <v>195.5599999999999</v>
+      </c>
+      <c r="I89" t="n">
+        <v>132.98</v>
+      </c>
+      <c r="J89" t="n">
+        <v>328.53</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>487.04</v>
+        <v>67.47</v>
       </c>
       <c r="C90" t="n">
-        <v>-19.3</v>
+        <v>-37.7</v>
       </c>
       <c r="D90" t="n">
-        <v>220.56</v>
+        <v>27.62</v>
       </c>
       <c r="E90" t="n">
-        <v>-10</v>
+        <v>-21.9</v>
       </c>
       <c r="F90" t="n">
-        <v>707.6</v>
+        <v>95.09</v>
       </c>
       <c r="G90" t="n">
-        <v>-16.6</v>
+        <v>-33.8</v>
+      </c>
+      <c r="H90" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="I90" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="J90" t="n">
+        <v>95.09</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>512.4400000000001</v>
+        <v>94.53</v>
       </c>
       <c r="C91" t="n">
-        <v>-23</v>
+        <v>-36.3</v>
       </c>
       <c r="D91" t="n">
-        <v>237.72</v>
+        <v>54.85</v>
       </c>
       <c r="E91" t="n">
-        <v>-12.4</v>
+        <v>-11</v>
       </c>
       <c r="F91" t="n">
-        <v>750.16</v>
+        <v>149.36</v>
       </c>
       <c r="G91" t="n">
-        <v>-19.9</v>
+        <v>-28.9</v>
+      </c>
+      <c r="H91" t="n">
+        <v>27.06</v>
+      </c>
+      <c r="I91" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="J91" t="n">
+        <v>54.27000000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>609.35</v>
+        <v>135.74</v>
       </c>
       <c r="C92" t="n">
-        <v>-29.3</v>
+        <v>-31</v>
       </c>
       <c r="D92" t="n">
-        <v>345.31</v>
+        <v>81.22</v>
       </c>
       <c r="E92" t="n">
-        <v>-15.3</v>
+        <v>2.4</v>
       </c>
       <c r="F92" t="n">
-        <v>954.66</v>
+        <v>216.96</v>
       </c>
       <c r="G92" t="n">
-        <v>-24.8</v>
+        <v>-21.4</v>
+      </c>
+      <c r="H92" t="n">
+        <v>41.21000000000001</v>
+      </c>
+      <c r="I92" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="J92" t="n">
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>67.47</v>
+        <v>178.9</v>
       </c>
       <c r="C93" t="n">
-        <v>-37.7</v>
+        <v>-25.6</v>
       </c>
       <c r="D93" t="n">
-        <v>27.62</v>
+        <v>102.94</v>
       </c>
       <c r="E93" t="n">
-        <v>-21.9</v>
+        <v>5.2</v>
       </c>
       <c r="F93" t="n">
-        <v>95.09</v>
+        <v>281.84</v>
       </c>
       <c r="G93" t="n">
-        <v>-33.8</v>
+        <v>-16.7</v>
+      </c>
+      <c r="H93" t="n">
+        <v>43.16</v>
+      </c>
+      <c r="I93" t="n">
+        <v>21.72</v>
+      </c>
+      <c r="J93" t="n">
+        <v>64.87999999999997</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>94.53</v>
+        <v>227.59</v>
       </c>
       <c r="C94" t="n">
-        <v>-36.3</v>
+        <v>-30.9</v>
       </c>
       <c r="D94" t="n">
-        <v>54.85</v>
+        <v>131.13</v>
       </c>
       <c r="E94" t="n">
-        <v>-11</v>
+        <v>4.9</v>
       </c>
       <c r="F94" t="n">
-        <v>149.36</v>
+        <v>358.71</v>
       </c>
       <c r="G94" t="n">
-        <v>-28.9</v>
+        <v>-21.1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>48.69</v>
+      </c>
+      <c r="I94" t="n">
+        <v>28.19</v>
+      </c>
+      <c r="J94" t="n">
+        <v>76.87</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>135.74</v>
+        <v>318.32</v>
       </c>
       <c r="C95" t="n">
-        <v>-31</v>
+        <v>-19.6</v>
       </c>
       <c r="D95" t="n">
-        <v>81.22</v>
+        <v>138.64</v>
       </c>
       <c r="E95" t="n">
-        <v>2.4</v>
+        <v>-7.3</v>
       </c>
       <c r="F95" t="n">
-        <v>216.96</v>
+        <v>456.95</v>
       </c>
       <c r="G95" t="n">
-        <v>-21.4</v>
+        <v>-16.2</v>
+      </c>
+      <c r="H95" t="n">
+        <v>90.72999999999999</v>
+      </c>
+      <c r="I95" t="n">
+        <v>7.509999999999991</v>
+      </c>
+      <c r="J95" t="n">
+        <v>98.24000000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>178.9</v>
+        <v>378.11</v>
       </c>
       <c r="C96" t="n">
-        <v>-25.6</v>
+        <v>-17.3</v>
       </c>
       <c r="D96" t="n">
-        <v>102.94</v>
+        <v>152.56</v>
       </c>
       <c r="E96" t="n">
-        <v>5.2</v>
+        <v>-15.1</v>
       </c>
       <c r="F96" t="n">
-        <v>281.84</v>
+        <v>530.67</v>
       </c>
       <c r="G96" t="n">
         <v>-16.7</v>
       </c>
+      <c r="H96" t="n">
+        <v>59.79000000000002</v>
+      </c>
+      <c r="I96" t="n">
+        <v>13.92000000000002</v>
+      </c>
+      <c r="J96" t="n">
+        <v>73.71999999999997</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>227.59</v>
+        <v>453.96</v>
       </c>
       <c r="C97" t="n">
-        <v>-30.9</v>
+        <v>-15.9</v>
       </c>
       <c r="D97" t="n">
-        <v>131.13</v>
+        <v>187.23</v>
       </c>
       <c r="E97" t="n">
-        <v>4.9</v>
+        <v>-13.4</v>
       </c>
       <c r="F97" t="n">
-        <v>358.71</v>
+        <v>641.1799999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>-21.1</v>
+        <v>-15.1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>75.84999999999997</v>
+      </c>
+      <c r="I97" t="n">
+        <v>34.66999999999999</v>
+      </c>
+      <c r="J97" t="n">
+        <v>110.51</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>318.32</v>
+        <v>487.04</v>
       </c>
       <c r="C98" t="n">
-        <v>-19.6</v>
+        <v>-19.3</v>
       </c>
       <c r="D98" t="n">
-        <v>138.64</v>
+        <v>220.56</v>
       </c>
       <c r="E98" t="n">
-        <v>-7.3</v>
+        <v>-10</v>
       </c>
       <c r="F98" t="n">
-        <v>456.95</v>
+        <v>707.6</v>
       </c>
       <c r="G98" t="n">
-        <v>-16.2</v>
+        <v>-16.6</v>
+      </c>
+      <c r="H98" t="n">
+        <v>33.08000000000004</v>
+      </c>
+      <c r="I98" t="n">
+        <v>33.33000000000001</v>
+      </c>
+      <c r="J98" t="n">
+        <v>66.42000000000007</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>378.11</v>
+        <v>512.4400000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>-17.3</v>
+        <v>-23</v>
       </c>
       <c r="D99" t="n">
-        <v>152.56</v>
+        <v>237.72</v>
       </c>
       <c r="E99" t="n">
-        <v>-15.1</v>
+        <v>-12.4</v>
       </c>
       <c r="F99" t="n">
-        <v>530.67</v>
+        <v>750.16</v>
       </c>
       <c r="G99" t="n">
-        <v>-16.7</v>
+        <v>-19.9</v>
+      </c>
+      <c r="H99" t="n">
+        <v>25.40000000000003</v>
+      </c>
+      <c r="I99" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="J99" t="n">
+        <v>42.55999999999995</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>453.96</v>
+        <v>609.35</v>
       </c>
       <c r="C100" t="n">
-        <v>-15.9</v>
+        <v>-29.3</v>
       </c>
       <c r="D100" t="n">
-        <v>187.23</v>
+        <v>345.31</v>
       </c>
       <c r="E100" t="n">
-        <v>-13.4</v>
+        <v>-15.3</v>
       </c>
       <c r="F100" t="n">
-        <v>641.1799999999999</v>
+        <v>954.66</v>
       </c>
       <c r="G100" t="n">
-        <v>-15.1</v>
+        <v>-24.8</v>
+      </c>
+      <c r="H100" t="n">
+        <v>96.90999999999997</v>
+      </c>
+      <c r="I100" t="n">
+        <v>107.59</v>
+      </c>
+      <c r="J100" t="n">
+        <v>204.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>661.14</v>
+        <v>47.33</v>
       </c>
       <c r="C101" t="n">
-        <v>35.7</v>
+        <v>-29.8</v>
       </c>
       <c r="D101" t="n">
-        <v>350.46</v>
+        <v>48.66</v>
       </c>
       <c r="E101" t="n">
-        <v>58.9</v>
+        <v>76.2</v>
       </c>
       <c r="F101" t="n">
-        <v>1011.59</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>43</v>
+        <v>0.9</v>
+      </c>
+      <c r="H101" t="n">
+        <v>47.33</v>
+      </c>
+      <c r="I101" t="n">
+        <v>48.66</v>
+      </c>
+      <c r="J101" t="n">
+        <v>95.98999999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>779.36</v>
+        <v>98.43000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>52.1</v>
+        <v>4.2</v>
       </c>
       <c r="D102" t="n">
-        <v>409.26</v>
+        <v>80.64</v>
       </c>
       <c r="E102" t="n">
-        <v>72.2</v>
+        <v>47.2</v>
       </c>
       <c r="F102" t="n">
-        <v>1188.61</v>
+        <v>179.07</v>
       </c>
       <c r="G102" t="n">
-        <v>58.4</v>
+        <v>20</v>
+      </c>
+      <c r="H102" t="n">
+        <v>51.10000000000001</v>
+      </c>
+      <c r="I102" t="n">
+        <v>31.98</v>
+      </c>
+      <c r="J102" t="n">
+        <v>83.08</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1103.36</v>
+        <v>150.63</v>
       </c>
       <c r="C103" t="n">
-        <v>79.09999999999999</v>
+        <v>11</v>
       </c>
       <c r="D103" t="n">
-        <v>514.48</v>
+        <v>96.63</v>
       </c>
       <c r="E103" t="n">
-        <v>45.7</v>
+        <v>19</v>
       </c>
       <c r="F103" t="n">
-        <v>1617.84</v>
+        <v>247.26</v>
       </c>
       <c r="G103" t="n">
-        <v>66.90000000000001</v>
+        <v>14</v>
+      </c>
+      <c r="H103" t="n">
+        <v>52.19999999999999</v>
+      </c>
+      <c r="I103" t="n">
+        <v>15.98999999999999</v>
+      </c>
+      <c r="J103" t="n">
+        <v>68.19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>47.33</v>
+        <v>202.2</v>
       </c>
       <c r="C104" t="n">
-        <v>-29.8</v>
+        <v>13</v>
       </c>
       <c r="D104" t="n">
-        <v>48.66</v>
+        <v>112.44</v>
       </c>
       <c r="E104" t="n">
-        <v>76.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>95.98999999999999</v>
+        <v>314.65</v>
       </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>11.6</v>
+      </c>
+      <c r="H104" t="n">
+        <v>51.56999999999999</v>
+      </c>
+      <c r="I104" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="J104" t="n">
+        <v>67.38999999999999</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>98.43000000000001</v>
+        <v>269.84</v>
       </c>
       <c r="C105" t="n">
-        <v>4.2</v>
+        <v>18.6</v>
       </c>
       <c r="D105" t="n">
-        <v>80.64</v>
+        <v>160.27</v>
       </c>
       <c r="E105" t="n">
-        <v>47.2</v>
+        <v>22.2</v>
       </c>
       <c r="F105" t="n">
-        <v>179.07</v>
+        <v>430.11</v>
       </c>
       <c r="G105" t="n">
-        <v>20</v>
+        <v>19.9</v>
+      </c>
+      <c r="H105" t="n">
+        <v>67.63999999999999</v>
+      </c>
+      <c r="I105" t="n">
+        <v>47.83000000000001</v>
+      </c>
+      <c r="J105" t="n">
+        <v>115.46</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>150.63</v>
+        <v>364.05</v>
       </c>
       <c r="C106" t="n">
-        <v>11</v>
+        <v>14.4</v>
       </c>
       <c r="D106" t="n">
-        <v>96.63</v>
+        <v>197.34</v>
       </c>
       <c r="E106" t="n">
-        <v>19</v>
+        <v>42.3</v>
       </c>
       <c r="F106" t="n">
-        <v>247.26</v>
+        <v>561.39</v>
       </c>
       <c r="G106" t="n">
-        <v>14</v>
+        <v>22.9</v>
+      </c>
+      <c r="H106" t="n">
+        <v>94.21000000000004</v>
+      </c>
+      <c r="I106" t="n">
+        <v>37.06999999999999</v>
+      </c>
+      <c r="J106" t="n">
+        <v>131.28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>202.2</v>
+        <v>483.79</v>
       </c>
       <c r="C107" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D107" t="n">
-        <v>112.44</v>
+        <v>235.9</v>
       </c>
       <c r="E107" t="n">
-        <v>9.199999999999999</v>
+        <v>54.6</v>
       </c>
       <c r="F107" t="n">
-        <v>314.65</v>
+        <v>719.6900000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>11.6</v>
+        <v>35.6</v>
+      </c>
+      <c r="H107" t="n">
+        <v>119.74</v>
+      </c>
+      <c r="I107" t="n">
+        <v>38.56</v>
+      </c>
+      <c r="J107" t="n">
+        <v>158.3000000000001</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>269.84</v>
+        <v>582.7</v>
       </c>
       <c r="C108" t="n">
-        <v>18.6</v>
+        <v>28.4</v>
       </c>
       <c r="D108" t="n">
-        <v>160.27</v>
+        <v>296.4</v>
       </c>
       <c r="E108" t="n">
-        <v>22.2</v>
+        <v>58.3</v>
       </c>
       <c r="F108" t="n">
-        <v>430.11</v>
+        <v>879.1</v>
       </c>
       <c r="G108" t="n">
-        <v>19.9</v>
+        <v>37.1</v>
+      </c>
+      <c r="H108" t="n">
+        <v>98.91000000000003</v>
+      </c>
+      <c r="I108" t="n">
+        <v>60.49999999999997</v>
+      </c>
+      <c r="J108" t="n">
+        <v>159.41</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>364.05</v>
+        <v>661.14</v>
       </c>
       <c r="C109" t="n">
-        <v>14.4</v>
+        <v>35.7</v>
       </c>
       <c r="D109" t="n">
-        <v>197.34</v>
+        <v>350.46</v>
       </c>
       <c r="E109" t="n">
-        <v>42.3</v>
+        <v>58.9</v>
       </c>
       <c r="F109" t="n">
-        <v>561.39</v>
+        <v>1011.59</v>
       </c>
       <c r="G109" t="n">
-        <v>22.9</v>
+        <v>43</v>
+      </c>
+      <c r="H109" t="n">
+        <v>78.43999999999994</v>
+      </c>
+      <c r="I109" t="n">
+        <v>54.06</v>
+      </c>
+      <c r="J109" t="n">
+        <v>132.49</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>483.79</v>
+        <v>779.36</v>
       </c>
       <c r="C110" t="n">
-        <v>28</v>
+        <v>52.1</v>
       </c>
       <c r="D110" t="n">
-        <v>235.9</v>
+        <v>409.26</v>
       </c>
       <c r="E110" t="n">
-        <v>54.6</v>
+        <v>72.2</v>
       </c>
       <c r="F110" t="n">
-        <v>719.6900000000001</v>
+        <v>1188.61</v>
       </c>
       <c r="G110" t="n">
-        <v>35.6</v>
+        <v>58.4</v>
+      </c>
+      <c r="H110" t="n">
+        <v>118.22</v>
+      </c>
+      <c r="I110" t="n">
+        <v>58.80000000000001</v>
+      </c>
+      <c r="J110" t="n">
+        <v>177.0199999999999</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>582.7</v>
+        <v>1103.36</v>
       </c>
       <c r="C111" t="n">
-        <v>28.4</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>296.4</v>
+        <v>514.48</v>
       </c>
       <c r="E111" t="n">
-        <v>58.3</v>
+        <v>45.7</v>
       </c>
       <c r="F111" t="n">
-        <v>879.1</v>
+        <v>1617.84</v>
       </c>
       <c r="G111" t="n">
-        <v>37.1</v>
+        <v>66.90000000000001</v>
+      </c>
+      <c r="H111" t="n">
+        <v>323.9999999999999</v>
+      </c>
+      <c r="I111" t="n">
+        <v>105.22</v>
+      </c>
+      <c r="J111" t="n">
+        <v>429.23</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1163.2442</v>
+        <v>116.89</v>
       </c>
       <c r="C112" t="n">
-        <v>75.90000000000001</v>
+        <v>146.7</v>
       </c>
       <c r="D112" t="n">
-        <v>377.2262</v>
+        <v>50.06</v>
       </c>
       <c r="E112" t="n">
-        <v>7.6</v>
+        <v>2.9</v>
       </c>
       <c r="F112" t="n">
-        <v>1540.4704</v>
+        <v>166.95</v>
       </c>
       <c r="G112" t="n">
-        <v>52.3</v>
+        <v>73.8</v>
+      </c>
+      <c r="H112" t="n">
+        <v>116.89</v>
+      </c>
+      <c r="I112" t="n">
+        <v>50.06</v>
+      </c>
+      <c r="J112" t="n">
+        <v>166.95</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1325.3864</v>
+        <v>210.71</v>
       </c>
       <c r="C113" t="n">
-        <v>70.09999999999999</v>
+        <v>114.1</v>
       </c>
       <c r="D113" t="n">
-        <v>439.0157</v>
+        <v>102.91</v>
       </c>
       <c r="E113" t="n">
-        <v>7.3</v>
+        <v>27.6</v>
       </c>
       <c r="F113" t="n">
-        <v>1764.4021</v>
+        <v>313.62</v>
       </c>
       <c r="G113" t="n">
-        <v>48.4</v>
+        <v>75.09999999999999</v>
+      </c>
+      <c r="H113" t="n">
+        <v>93.82000000000001</v>
+      </c>
+      <c r="I113" t="n">
+        <v>52.84999999999999</v>
+      </c>
+      <c r="J113" t="n">
+        <v>146.67</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1590.2116</v>
+        <v>349.17</v>
       </c>
       <c r="C114" t="n">
-        <v>42.3</v>
+        <v>131.8</v>
       </c>
       <c r="D114" t="n">
-        <v>558.5978</v>
+        <v>160.69</v>
       </c>
       <c r="E114" t="n">
-        <v>7.2</v>
+        <v>66.3</v>
       </c>
       <c r="F114" t="n">
-        <v>2148.8094</v>
+        <v>509.86</v>
       </c>
       <c r="G114" t="n">
-        <v>31.2</v>
+        <v>106.2</v>
+      </c>
+      <c r="H114" t="n">
+        <v>138.46</v>
+      </c>
+      <c r="I114" t="n">
+        <v>57.78</v>
+      </c>
+      <c r="J114" t="n">
+        <v>196.24</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>116.89</v>
+        <v>477.18</v>
       </c>
       <c r="C115" t="n">
-        <v>146.7</v>
+        <v>136</v>
       </c>
       <c r="D115" t="n">
-        <v>50.06</v>
+        <v>191.4</v>
       </c>
       <c r="E115" t="n">
-        <v>2.9</v>
+        <v>70.2</v>
       </c>
       <c r="F115" t="n">
-        <v>166.95</v>
+        <v>668.5700000000001</v>
       </c>
       <c r="G115" t="n">
-        <v>73.8</v>
+        <v>112.5</v>
+      </c>
+      <c r="H115" t="n">
+        <v>128.01</v>
+      </c>
+      <c r="I115" t="n">
+        <v>30.71000000000001</v>
+      </c>
+      <c r="J115" t="n">
+        <v>158.71</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>210.71</v>
+        <v>608.64</v>
       </c>
       <c r="C116" t="n">
-        <v>114.1</v>
+        <v>125.6</v>
       </c>
       <c r="D116" t="n">
-        <v>102.91</v>
+        <v>214.83</v>
       </c>
       <c r="E116" t="n">
-        <v>27.6</v>
+        <v>34</v>
       </c>
       <c r="F116" t="n">
-        <v>313.62</v>
+        <v>823.47</v>
       </c>
       <c r="G116" t="n">
-        <v>75.09999999999999</v>
+        <v>91.5</v>
+      </c>
+      <c r="H116" t="n">
+        <v>131.46</v>
+      </c>
+      <c r="I116" t="n">
+        <v>23.43000000000001</v>
+      </c>
+      <c r="J116" t="n">
+        <v>154.9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>349.17</v>
+        <v>730.88</v>
       </c>
       <c r="C117" t="n">
-        <v>131.8</v>
+        <v>100.8</v>
       </c>
       <c r="D117" t="n">
-        <v>160.69</v>
+        <v>247.43</v>
       </c>
       <c r="E117" t="n">
-        <v>66.3</v>
+        <v>25.4</v>
       </c>
       <c r="F117" t="n">
-        <v>509.86</v>
+        <v>978.3099999999999</v>
       </c>
       <c r="G117" t="n">
-        <v>106.2</v>
+        <v>74.3</v>
+      </c>
+      <c r="H117" t="n">
+        <v>122.24</v>
+      </c>
+      <c r="I117" t="n">
+        <v>32.59999999999999</v>
+      </c>
+      <c r="J117" t="n">
+        <v>154.8399999999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>477.18</v>
+        <v>848.52</v>
       </c>
       <c r="C118" t="n">
-        <v>136</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>191.4</v>
+        <v>277.9</v>
       </c>
       <c r="E118" t="n">
-        <v>70.2</v>
+        <v>17.8</v>
       </c>
       <c r="F118" t="n">
-        <v>668.5700000000001</v>
+        <v>1126.43</v>
       </c>
       <c r="G118" t="n">
-        <v>112.5</v>
+        <v>56.5</v>
+      </c>
+      <c r="H118" t="n">
+        <v>117.64</v>
+      </c>
+      <c r="I118" t="n">
+        <v>30.46999999999997</v>
+      </c>
+      <c r="J118" t="n">
+        <v>148.1200000000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>608.64</v>
+        <v>992.23</v>
       </c>
       <c r="C119" t="n">
-        <v>125.6</v>
+        <v>70.3</v>
       </c>
       <c r="D119" t="n">
-        <v>214.83</v>
+        <v>325.56</v>
       </c>
       <c r="E119" t="n">
-        <v>34</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>823.47</v>
+        <v>1317.79</v>
       </c>
       <c r="G119" t="n">
-        <v>91.5</v>
+        <v>49.9</v>
+      </c>
+      <c r="H119" t="n">
+        <v>143.71</v>
+      </c>
+      <c r="I119" t="n">
+        <v>47.66000000000003</v>
+      </c>
+      <c r="J119" t="n">
+        <v>191.3599999999999</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>730.88</v>
+        <v>1163.2442</v>
       </c>
       <c r="C120" t="n">
-        <v>100.8</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>247.43</v>
+        <v>377.2262</v>
       </c>
       <c r="E120" t="n">
-        <v>25.4</v>
+        <v>7.6</v>
       </c>
       <c r="F120" t="n">
-        <v>978.3099999999999</v>
+        <v>1540.4704</v>
       </c>
       <c r="G120" t="n">
-        <v>74.3</v>
+        <v>52.3</v>
+      </c>
+      <c r="H120" t="n">
+        <v>171.0142000000001</v>
+      </c>
+      <c r="I120" t="n">
+        <v>51.6662</v>
+      </c>
+      <c r="J120" t="n">
+        <v>222.6804</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>848.52</v>
+        <v>1325.3864</v>
       </c>
       <c r="C121" t="n">
-        <v>75.40000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>277.9</v>
+        <v>439.0157</v>
       </c>
       <c r="E121" t="n">
-        <v>17.8</v>
+        <v>7.3</v>
       </c>
       <c r="F121" t="n">
-        <v>1126.43</v>
+        <v>1764.4021</v>
       </c>
       <c r="G121" t="n">
-        <v>56.5</v>
+        <v>48.4</v>
+      </c>
+      <c r="H121" t="n">
+        <v>162.1422</v>
+      </c>
+      <c r="I121" t="n">
+        <v>61.78949999999998</v>
+      </c>
+      <c r="J121" t="n">
+        <v>223.9317000000001</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>992.23</v>
+        <v>1590.2116</v>
       </c>
       <c r="C122" t="n">
-        <v>70.3</v>
+        <v>42.3</v>
       </c>
       <c r="D122" t="n">
-        <v>325.56</v>
+        <v>558.5978</v>
       </c>
       <c r="E122" t="n">
-        <v>9.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="F122" t="n">
-        <v>1317.79</v>
+        <v>2148.8094</v>
       </c>
       <c r="G122" t="n">
-        <v>49.9</v>
+        <v>31.2</v>
+      </c>
+      <c r="H122" t="n">
+        <v>264.8252</v>
+      </c>
+      <c r="I122" t="n">
+        <v>119.5821</v>
+      </c>
+      <c r="J122" t="n">
+        <v>384.4073000000001</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1429.6069</v>
+        <v>180.9524</v>
       </c>
       <c r="C123" t="n">
-        <v>22.9</v>
+        <v>54.8</v>
       </c>
       <c r="D123" t="n">
-        <v>528.2237</v>
+        <v>63.2448</v>
       </c>
       <c r="E123" t="n">
-        <v>40</v>
+        <v>26.3</v>
       </c>
       <c r="F123" t="n">
-        <v>1957.8306</v>
+        <v>244.1972</v>
       </c>
       <c r="G123" t="n">
-        <v>27.1</v>
+        <v>46.3</v>
+      </c>
+      <c r="H123" t="n">
+        <v>180.9524</v>
+      </c>
+      <c r="I123" t="n">
+        <v>63.2448</v>
+      </c>
+      <c r="J123" t="n">
+        <v>244.1972</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1581.1772</v>
+        <v>336.091</v>
       </c>
       <c r="C124" t="n">
-        <v>19.3</v>
+        <v>59.5</v>
       </c>
       <c r="D124" t="n">
-        <v>569.2186</v>
+        <v>111.3308</v>
       </c>
       <c r="E124" t="n">
-        <v>29.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>2150.3958</v>
+        <v>447.4218</v>
       </c>
       <c r="G124" t="n">
-        <v>21.9</v>
+        <v>42.7</v>
+      </c>
+      <c r="H124" t="n">
+        <v>155.1386</v>
+      </c>
+      <c r="I124" t="n">
+        <v>48.086</v>
+      </c>
+      <c r="J124" t="n">
+        <v>203.2246</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1834.0689</v>
+        <v>473.686</v>
       </c>
       <c r="C125" t="n">
-        <v>15</v>
+        <v>35.7</v>
       </c>
       <c r="D125" t="n">
-        <v>667.6664</v>
+        <v>157.3076</v>
       </c>
       <c r="E125" t="n">
-        <v>19</v>
+        <v>-2.1</v>
       </c>
       <c r="F125" t="n">
-        <v>2501.7353</v>
+        <v>630.9936</v>
       </c>
       <c r="G125" t="n">
-        <v>16.1</v>
+        <v>23.8</v>
+      </c>
+      <c r="H125" t="n">
+        <v>137.595</v>
+      </c>
+      <c r="I125" t="n">
+        <v>45.97680000000001</v>
+      </c>
+      <c r="J125" t="n">
+        <v>183.5718</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>180.9524</v>
+        <v>623.7923</v>
       </c>
       <c r="C126" t="n">
-        <v>54.8</v>
+        <v>30.7</v>
       </c>
       <c r="D126" t="n">
-        <v>63.2448</v>
+        <v>221.6367</v>
       </c>
       <c r="E126" t="n">
-        <v>26.3</v>
+        <v>15.8</v>
       </c>
       <c r="F126" t="n">
-        <v>244.1972</v>
+        <v>845.429</v>
       </c>
       <c r="G126" t="n">
-        <v>46.3</v>
+        <v>26.5</v>
+      </c>
+      <c r="H126" t="n">
+        <v>150.1063</v>
+      </c>
+      <c r="I126" t="n">
+        <v>64.32909999999998</v>
+      </c>
+      <c r="J126" t="n">
+        <v>214.4354</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>336.091</v>
+        <v>756.6132</v>
       </c>
       <c r="C127" t="n">
-        <v>59.5</v>
+        <v>24.3</v>
       </c>
       <c r="D127" t="n">
-        <v>111.3308</v>
+        <v>293.8946</v>
       </c>
       <c r="E127" t="n">
-        <v>8.199999999999999</v>
+        <v>36.8</v>
       </c>
       <c r="F127" t="n">
-        <v>447.4218</v>
+        <v>1050.5078</v>
       </c>
       <c r="G127" t="n">
-        <v>42.7</v>
+        <v>27.6</v>
+      </c>
+      <c r="H127" t="n">
+        <v>132.8209000000001</v>
+      </c>
+      <c r="I127" t="n">
+        <v>72.25790000000003</v>
+      </c>
+      <c r="J127" t="n">
+        <v>205.0788000000001</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>473.686</v>
+        <v>910.7448000000001</v>
       </c>
       <c r="C128" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>335.8838</v>
+      </c>
+      <c r="E128" t="n">
         <v>35.7</v>
       </c>
-      <c r="D128" t="n">
-        <v>157.3076</v>
-      </c>
-      <c r="E128" t="n">
-        <v>-2.1</v>
-      </c>
       <c r="F128" t="n">
-        <v>630.9936</v>
+        <v>1246.6286</v>
       </c>
       <c r="G128" t="n">
-        <v>23.8</v>
+        <v>27.4</v>
+      </c>
+      <c r="H128" t="n">
+        <v>154.1316</v>
+      </c>
+      <c r="I128" t="n">
+        <v>41.98919999999998</v>
+      </c>
+      <c r="J128" t="n">
+        <v>196.1207999999999</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>623.7923</v>
+        <v>1095.3713</v>
       </c>
       <c r="C129" t="n">
-        <v>30.7</v>
+        <v>29.1</v>
       </c>
       <c r="D129" t="n">
-        <v>221.6367</v>
+        <v>415.1525</v>
       </c>
       <c r="E129" t="n">
-        <v>15.8</v>
+        <v>49.4</v>
       </c>
       <c r="F129" t="n">
-        <v>845.429</v>
+        <v>1510.5238</v>
       </c>
       <c r="G129" t="n">
-        <v>26.5</v>
+        <v>34.1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>184.6265</v>
+      </c>
+      <c r="I129" t="n">
+        <v>79.26869999999997</v>
+      </c>
+      <c r="J129" t="n">
+        <v>263.8951999999999</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>756.6132</v>
+        <v>1315.4291</v>
       </c>
       <c r="C130" t="n">
-        <v>24.3</v>
+        <v>32.6</v>
       </c>
       <c r="D130" t="n">
-        <v>293.8946</v>
+        <v>465.2769</v>
       </c>
       <c r="E130" t="n">
-        <v>36.8</v>
+        <v>42.9</v>
       </c>
       <c r="F130" t="n">
-        <v>1050.5078</v>
+        <v>1780.706</v>
       </c>
       <c r="G130" t="n">
-        <v>27.6</v>
+        <v>35.1</v>
+      </c>
+      <c r="H130" t="n">
+        <v>220.0578</v>
+      </c>
+      <c r="I130" t="n">
+        <v>50.12440000000004</v>
+      </c>
+      <c r="J130" t="n">
+        <v>270.1822</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>910.7448000000001</v>
+        <v>1429.6069</v>
       </c>
       <c r="C131" t="n">
-        <v>24.6</v>
+        <v>22.9</v>
       </c>
       <c r="D131" t="n">
-        <v>335.8838</v>
+        <v>528.2237</v>
       </c>
       <c r="E131" t="n">
-        <v>35.7</v>
+        <v>40</v>
       </c>
       <c r="F131" t="n">
-        <v>1246.6286</v>
+        <v>1957.8306</v>
       </c>
       <c r="G131" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
+      </c>
+      <c r="H131" t="n">
+        <v>114.1777999999999</v>
+      </c>
+      <c r="I131" t="n">
+        <v>62.9468</v>
+      </c>
+      <c r="J131" t="n">
+        <v>177.1246000000001</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1095.3713</v>
+        <v>1581.1772</v>
       </c>
       <c r="C132" t="n">
-        <v>29.1</v>
+        <v>19.3</v>
       </c>
       <c r="D132" t="n">
-        <v>415.1525</v>
+        <v>569.2186</v>
       </c>
       <c r="E132" t="n">
-        <v>49.4</v>
+        <v>29.7</v>
       </c>
       <c r="F132" t="n">
-        <v>1510.5238</v>
+        <v>2150.3958</v>
       </c>
       <c r="G132" t="n">
-        <v>34.1</v>
+        <v>21.9</v>
+      </c>
+      <c r="H132" t="n">
+        <v>151.5703000000001</v>
+      </c>
+      <c r="I132" t="n">
+        <v>40.99490000000003</v>
+      </c>
+      <c r="J132" t="n">
+        <v>192.5651999999998</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1315.4291</v>
+        <v>1834.0689</v>
       </c>
       <c r="C133" t="n">
-        <v>32.6</v>
+        <v>15</v>
       </c>
       <c r="D133" t="n">
-        <v>465.2769</v>
+        <v>667.6664</v>
       </c>
       <c r="E133" t="n">
-        <v>42.9</v>
+        <v>19</v>
       </c>
       <c r="F133" t="n">
-        <v>1780.706</v>
+        <v>2501.7353</v>
       </c>
       <c r="G133" t="n">
-        <v>35.1</v>
+        <v>16.1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>252.8916999999999</v>
+      </c>
+      <c r="I133" t="n">
+        <v>98.44779999999992</v>
+      </c>
+      <c r="J133" t="n">
+        <v>351.3395</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1519.3092</v>
+        <v>147.8283</v>
       </c>
       <c r="C134" t="n">
-        <v>6.3</v>
+        <v>-18.3</v>
       </c>
       <c r="D134" t="n">
-        <v>431.175</v>
+        <v>39.0533</v>
       </c>
       <c r="E134" t="n">
-        <v>-18.4</v>
+        <v>-38.3</v>
       </c>
       <c r="F134" t="n">
-        <v>1950.4842</v>
+        <v>186.8816</v>
       </c>
       <c r="G134" t="n">
-        <v>-0.4</v>
+        <v>-23.5</v>
+      </c>
+      <c r="H134" t="n">
+        <v>147.8283</v>
+      </c>
+      <c r="I134" t="n">
+        <v>39.0533</v>
+      </c>
+      <c r="J134" t="n">
+        <v>186.8816</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1737.0865</v>
+        <v>275.1942</v>
       </c>
       <c r="C135" t="n">
-        <v>9.9</v>
+        <v>-18.1</v>
       </c>
       <c r="D135" t="n">
-        <v>502.4009</v>
+        <v>126.3737</v>
       </c>
       <c r="E135" t="n">
-        <v>-11.7</v>
+        <v>13.5</v>
       </c>
       <c r="F135" t="n">
-        <v>2239.4874</v>
+        <v>401.5679</v>
       </c>
       <c r="G135" t="n">
-        <v>4.1</v>
+        <v>-10.2</v>
+      </c>
+      <c r="H135" t="n">
+        <v>127.3659</v>
+      </c>
+      <c r="I135" t="n">
+        <v>87.32040000000001</v>
+      </c>
+      <c r="J135" t="n">
+        <v>214.6863</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2185.8663</v>
+        <v>404.5067</v>
       </c>
       <c r="C136" t="n">
-        <v>20.9</v>
+        <v>-14.6</v>
       </c>
       <c r="D136" t="n">
-        <v>587.5685999999999</v>
+        <v>138.4599</v>
       </c>
       <c r="E136" t="n">
-        <v>-11.4</v>
+        <v>-12</v>
       </c>
       <c r="F136" t="n">
-        <v>2773.4349</v>
+        <v>542.9666</v>
       </c>
       <c r="G136" t="n">
-        <v>12.2</v>
+        <v>-14</v>
+      </c>
+      <c r="H136" t="n">
+        <v>129.3125</v>
+      </c>
+      <c r="I136" t="n">
+        <v>12.08620000000001</v>
+      </c>
+      <c r="J136" t="n">
+        <v>141.3987</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>147.8283</v>
+        <v>563.1689</v>
       </c>
       <c r="C137" t="n">
-        <v>-18.3</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>39.0533</v>
+        <v>208.4652</v>
       </c>
       <c r="E137" t="n">
-        <v>-38.3</v>
+        <v>-5.9</v>
       </c>
       <c r="F137" t="n">
-        <v>186.8816</v>
+        <v>771.6341</v>
       </c>
       <c r="G137" t="n">
-        <v>-23.5</v>
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>158.6622</v>
+      </c>
+      <c r="I137" t="n">
+        <v>70.00530000000001</v>
+      </c>
+      <c r="J137" t="n">
+        <v>228.6675</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>275.1942</v>
+        <v>778.0244</v>
       </c>
       <c r="C138" t="n">
-        <v>-18.1</v>
+        <v>2.8</v>
       </c>
       <c r="D138" t="n">
-        <v>126.3737</v>
+        <v>261.0483</v>
       </c>
       <c r="E138" t="n">
-        <v>13.5</v>
+        <v>-11.2</v>
       </c>
       <c r="F138" t="n">
-        <v>401.5679</v>
+        <v>1039.0727</v>
       </c>
       <c r="G138" t="n">
-        <v>-10.2</v>
+        <v>-1.1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>214.8555</v>
+      </c>
+      <c r="I138" t="n">
+        <v>52.58309999999997</v>
+      </c>
+      <c r="J138" t="n">
+        <v>267.4386</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>404.5067</v>
+        <v>988.4666999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>-14.6</v>
+        <v>8.5</v>
       </c>
       <c r="D139" t="n">
-        <v>138.4599</v>
+        <v>311.5131</v>
       </c>
       <c r="E139" t="n">
-        <v>-12</v>
+        <v>-7.3</v>
       </c>
       <c r="F139" t="n">
-        <v>542.9666</v>
+        <v>1299.9798</v>
       </c>
       <c r="G139" t="n">
-        <v>-14</v>
+        <v>4.3</v>
+      </c>
+      <c r="H139" t="n">
+        <v>210.4422999999999</v>
+      </c>
+      <c r="I139" t="n">
+        <v>50.46480000000003</v>
+      </c>
+      <c r="J139" t="n">
+        <v>260.9071000000001</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>563.1689</v>
+        <v>1145.8687</v>
       </c>
       <c r="C140" t="n">
-        <v>-9.699999999999999</v>
+        <v>4.6</v>
       </c>
       <c r="D140" t="n">
-        <v>208.4652</v>
+        <v>335.9916</v>
       </c>
       <c r="E140" t="n">
-        <v>-5.9</v>
+        <v>-19.1</v>
       </c>
       <c r="F140" t="n">
-        <v>771.6341</v>
+        <v>1481.8603</v>
       </c>
       <c r="G140" t="n">
-        <v>-8.699999999999999</v>
+        <v>-1.9</v>
+      </c>
+      <c r="H140" t="n">
+        <v>157.402</v>
+      </c>
+      <c r="I140" t="n">
+        <v>24.4785</v>
+      </c>
+      <c r="J140" t="n">
+        <v>181.8805</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>778.0244</v>
+        <v>1338.6444</v>
       </c>
       <c r="C141" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="D141" t="n">
-        <v>261.0483</v>
+        <v>366.6192</v>
       </c>
       <c r="E141" t="n">
-        <v>-11.2</v>
+        <v>-21.2</v>
       </c>
       <c r="F141" t="n">
-        <v>1039.0727</v>
+        <v>1705.2636</v>
       </c>
       <c r="G141" t="n">
-        <v>-1.1</v>
+        <v>-4.2</v>
+      </c>
+      <c r="H141" t="n">
+        <v>192.7756999999999</v>
+      </c>
+      <c r="I141" t="n">
+        <v>30.62759999999997</v>
+      </c>
+      <c r="J141" t="n">
+        <v>223.4032999999999</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>988.4666999999999</v>
+        <v>1519.3092</v>
       </c>
       <c r="C142" t="n">
-        <v>8.5</v>
+        <v>6.3</v>
       </c>
       <c r="D142" t="n">
-        <v>311.5131</v>
+        <v>431.175</v>
       </c>
       <c r="E142" t="n">
-        <v>-7.3</v>
+        <v>-18.4</v>
       </c>
       <c r="F142" t="n">
-        <v>1299.9798</v>
+        <v>1950.4842</v>
       </c>
       <c r="G142" t="n">
-        <v>4.3</v>
+        <v>-0.4</v>
+      </c>
+      <c r="H142" t="n">
+        <v>180.6648</v>
+      </c>
+      <c r="I142" t="n">
+        <v>64.55580000000003</v>
+      </c>
+      <c r="J142" t="n">
+        <v>245.2206000000001</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1145.8687</v>
+        <v>1737.0865</v>
       </c>
       <c r="C143" t="n">
-        <v>4.6</v>
+        <v>9.9</v>
       </c>
       <c r="D143" t="n">
-        <v>335.9916</v>
+        <v>502.4009</v>
       </c>
       <c r="E143" t="n">
-        <v>-19.1</v>
+        <v>-11.7</v>
       </c>
       <c r="F143" t="n">
-        <v>1481.8603</v>
+        <v>2239.4874</v>
       </c>
       <c r="G143" t="n">
-        <v>-1.9</v>
+        <v>4.1</v>
+      </c>
+      <c r="H143" t="n">
+        <v>217.7773</v>
+      </c>
+      <c r="I143" t="n">
+        <v>71.22589999999997</v>
+      </c>
+      <c r="J143" t="n">
+        <v>289.0031999999999</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1338.6444</v>
+        <v>2185.8663</v>
       </c>
       <c r="C144" t="n">
-        <v>1.8</v>
+        <v>20.9</v>
       </c>
       <c r="D144" t="n">
-        <v>366.6192</v>
+        <v>587.5685999999999</v>
       </c>
       <c r="E144" t="n">
-        <v>-21.2</v>
+        <v>-11.4</v>
       </c>
       <c r="F144" t="n">
-        <v>1705.2636</v>
+        <v>2773.4349</v>
       </c>
       <c r="G144" t="n">
-        <v>-4.2</v>
+        <v>12.2</v>
+      </c>
+      <c r="H144" t="n">
+        <v>448.7798000000003</v>
+      </c>
+      <c r="I144" t="n">
+        <v>85.16769999999997</v>
+      </c>
+      <c r="J144" t="n">
+        <v>533.9475000000002</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2129.3777</v>
+        <v>278.4779</v>
       </c>
       <c r="C145" t="n">
-        <v>40.2</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>649.6547</v>
+        <v>79.6101</v>
       </c>
       <c r="E145" t="n">
-        <v>50.7</v>
+        <v>103.8</v>
       </c>
       <c r="F145" t="n">
-        <v>2779.0324</v>
+        <v>358.088</v>
       </c>
       <c r="G145" t="n">
-        <v>42.5</v>
+        <v>91.59999999999999</v>
+      </c>
+      <c r="H145" t="n">
+        <v>278.4779</v>
+      </c>
+      <c r="I145" t="n">
+        <v>79.6101</v>
+      </c>
+      <c r="J145" t="n">
+        <v>358.088</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2417.8507</v>
+        <v>493.8581</v>
       </c>
       <c r="C146" t="n">
-        <v>39.2</v>
+        <v>79.5</v>
       </c>
       <c r="D146" t="n">
-        <v>706.6962</v>
+        <v>149.2877</v>
       </c>
       <c r="E146" t="n">
-        <v>40.7</v>
+        <v>18.1</v>
       </c>
       <c r="F146" t="n">
-        <v>3124.5469</v>
+        <v>643.1458</v>
       </c>
       <c r="G146" t="n">
-        <v>39.5</v>
+        <v>60.2</v>
+      </c>
+      <c r="H146" t="n">
+        <v>215.3802</v>
+      </c>
+      <c r="I146" t="n">
+        <v>69.6776</v>
+      </c>
+      <c r="J146" t="n">
+        <v>285.0578</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2856.6812</v>
+        <v>658.2342</v>
       </c>
       <c r="C147" t="n">
-        <v>30.7</v>
+        <v>62.7</v>
       </c>
       <c r="D147" t="n">
-        <v>890.6685</v>
+        <v>222.8651</v>
       </c>
       <c r="E147" t="n">
-        <v>51.6</v>
+        <v>61</v>
       </c>
       <c r="F147" t="n">
-        <v>3747.3497</v>
+        <v>881.0993</v>
       </c>
       <c r="G147" t="n">
-        <v>35.1</v>
+        <v>62.3</v>
+      </c>
+      <c r="H147" t="n">
+        <v>164.3761</v>
+      </c>
+      <c r="I147" t="n">
+        <v>73.57740000000001</v>
+      </c>
+      <c r="J147" t="n">
+        <v>237.9535</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>278.4779</v>
+        <v>868.366</v>
       </c>
       <c r="C148" t="n">
-        <v>88.40000000000001</v>
+        <v>54.2</v>
       </c>
       <c r="D148" t="n">
-        <v>79.6101</v>
+        <v>317.4375</v>
       </c>
       <c r="E148" t="n">
-        <v>103.8</v>
+        <v>52.3</v>
       </c>
       <c r="F148" t="n">
-        <v>358.088</v>
+        <v>1185.8035</v>
       </c>
       <c r="G148" t="n">
-        <v>91.59999999999999</v>
+        <v>53.7</v>
+      </c>
+      <c r="H148" t="n">
+        <v>210.1318</v>
+      </c>
+      <c r="I148" t="n">
+        <v>94.57239999999999</v>
+      </c>
+      <c r="J148" t="n">
+        <v>304.7042</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>493.8581</v>
+        <v>1130.2828</v>
       </c>
       <c r="C149" t="n">
-        <v>79.5</v>
+        <v>45.3</v>
       </c>
       <c r="D149" t="n">
-        <v>149.2877</v>
+        <v>383.369</v>
       </c>
       <c r="E149" t="n">
-        <v>18.1</v>
+        <v>46.9</v>
       </c>
       <c r="F149" t="n">
-        <v>643.1458</v>
+        <v>1513.6518</v>
       </c>
       <c r="G149" t="n">
-        <v>60.2</v>
+        <v>45.7</v>
+      </c>
+      <c r="H149" t="n">
+        <v>261.9168</v>
+      </c>
+      <c r="I149" t="n">
+        <v>65.93150000000003</v>
+      </c>
+      <c r="J149" t="n">
+        <v>327.8483000000001</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>658.2342</v>
+        <v>1374.2385</v>
       </c>
       <c r="C150" t="n">
-        <v>62.7</v>
+        <v>39</v>
       </c>
       <c r="D150" t="n">
-        <v>222.8651</v>
+        <v>432.1577</v>
       </c>
       <c r="E150" t="n">
-        <v>61</v>
+        <v>38.7</v>
       </c>
       <c r="F150" t="n">
-        <v>881.0993</v>
+        <v>1806.3962</v>
       </c>
       <c r="G150" t="n">
-        <v>62.3</v>
+        <v>39</v>
+      </c>
+      <c r="H150" t="n">
+        <v>243.9557</v>
+      </c>
+      <c r="I150" t="n">
+        <v>48.78869999999995</v>
+      </c>
+      <c r="J150" t="n">
+        <v>292.7443999999998</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>868.366</v>
+        <v>1595.5592</v>
       </c>
       <c r="C151" t="n">
-        <v>54.2</v>
+        <v>39.2</v>
       </c>
       <c r="D151" t="n">
-        <v>317.4375</v>
+        <v>506.9312</v>
       </c>
       <c r="E151" t="n">
-        <v>52.3</v>
+        <v>50.9</v>
       </c>
       <c r="F151" t="n">
-        <v>1185.8035</v>
+        <v>2102.4904</v>
       </c>
       <c r="G151" t="n">
-        <v>53.7</v>
+        <v>41.9</v>
+      </c>
+      <c r="H151" t="n">
+        <v>221.3207</v>
+      </c>
+      <c r="I151" t="n">
+        <v>74.77350000000001</v>
+      </c>
+      <c r="J151" t="n">
+        <v>296.0942000000002</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1130.2828</v>
+        <v>1885.8125</v>
       </c>
       <c r="C152" t="n">
-        <v>45.3</v>
+        <v>40.9</v>
       </c>
       <c r="D152" t="n">
-        <v>383.369</v>
+        <v>588.4177</v>
       </c>
       <c r="E152" t="n">
-        <v>46.9</v>
+        <v>60.5</v>
       </c>
       <c r="F152" t="n">
-        <v>1513.6518</v>
+        <v>2474.2302</v>
       </c>
       <c r="G152" t="n">
-        <v>45.7</v>
+        <v>45.1</v>
+      </c>
+      <c r="H152" t="n">
+        <v>290.2533000000001</v>
+      </c>
+      <c r="I152" t="n">
+        <v>81.48649999999998</v>
+      </c>
+      <c r="J152" t="n">
+        <v>371.7397999999998</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1374.2385</v>
+        <v>2129.3777</v>
       </c>
       <c r="C153" t="n">
-        <v>39</v>
+        <v>40.2</v>
       </c>
       <c r="D153" t="n">
-        <v>432.1577</v>
+        <v>649.6547</v>
       </c>
       <c r="E153" t="n">
-        <v>38.7</v>
+        <v>50.7</v>
       </c>
       <c r="F153" t="n">
-        <v>1806.3962</v>
+        <v>2779.0324</v>
       </c>
       <c r="G153" t="n">
-        <v>39</v>
+        <v>42.5</v>
+      </c>
+      <c r="H153" t="n">
+        <v>243.5652</v>
+      </c>
+      <c r="I153" t="n">
+        <v>61.23700000000008</v>
+      </c>
+      <c r="J153" t="n">
+        <v>304.8022000000001</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1595.5592</v>
+        <v>2417.8507</v>
       </c>
       <c r="C154" t="n">
         <v>39.2</v>
       </c>
       <c r="D154" t="n">
-        <v>506.9312</v>
+        <v>706.6962</v>
       </c>
       <c r="E154" t="n">
-        <v>50.9</v>
+        <v>40.7</v>
       </c>
       <c r="F154" t="n">
-        <v>2102.4904</v>
+        <v>3124.5469</v>
       </c>
       <c r="G154" t="n">
-        <v>41.9</v>
+        <v>39.5</v>
+      </c>
+      <c r="H154" t="n">
+        <v>288.473</v>
+      </c>
+      <c r="I154" t="n">
+        <v>57.04149999999993</v>
+      </c>
+      <c r="J154" t="n">
+        <v>345.5144999999998</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1885.8125</v>
+        <v>2856.6812</v>
       </c>
       <c r="C155" t="n">
-        <v>40.9</v>
+        <v>30.7</v>
       </c>
       <c r="D155" t="n">
-        <v>588.4177</v>
+        <v>890.6685</v>
       </c>
       <c r="E155" t="n">
-        <v>60.5</v>
+        <v>51.6</v>
       </c>
       <c r="F155" t="n">
-        <v>2474.2302</v>
+        <v>3747.3497</v>
       </c>
       <c r="G155" t="n">
-        <v>45.1</v>
+        <v>35.1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>438.8305</v>
+      </c>
+      <c r="I155" t="n">
+        <v>183.9723</v>
+      </c>
+      <c r="J155" t="n">
+        <v>622.8028000000004</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1713.9501</v>
+        <v>242.4875</v>
       </c>
       <c r="C156" t="n">
-        <v>-19.5</v>
+        <v>-12.9</v>
       </c>
       <c r="D156" t="n">
-        <v>499.3199</v>
+        <v>54.2953</v>
       </c>
       <c r="E156" t="n">
-        <v>-23.1</v>
+        <v>-31.8</v>
       </c>
       <c r="F156" t="n">
-        <v>2213.27</v>
+        <v>296.7828</v>
       </c>
       <c r="G156" t="n">
-        <v>-20.4</v>
+        <v>-17.1</v>
+      </c>
+      <c r="H156" t="n">
+        <v>242.4875</v>
+      </c>
+      <c r="I156" t="n">
+        <v>54.2953</v>
+      </c>
+      <c r="J156" t="n">
+        <v>296.7828</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1919.6386</v>
+        <v>470.8997</v>
       </c>
       <c r="C157" t="n">
-        <v>-20.6</v>
+        <v>-4.6</v>
       </c>
       <c r="D157" t="n">
-        <v>550.4796</v>
+        <v>103.9823</v>
       </c>
       <c r="E157" t="n">
-        <v>-22.1</v>
+        <v>-30.3</v>
       </c>
       <c r="F157" t="n">
-        <v>2470.1182</v>
+        <v>574.8819999999999</v>
       </c>
       <c r="G157" t="n">
-        <v>-20.9</v>
+        <v>-10.6</v>
+      </c>
+      <c r="H157" t="n">
+        <v>228.4122</v>
+      </c>
+      <c r="I157" t="n">
+        <v>49.687</v>
+      </c>
+      <c r="J157" t="n">
+        <v>278.0991999999999</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2252.3159</v>
+        <v>613.6191</v>
       </c>
       <c r="C158" t="n">
-        <v>-21.2</v>
+        <v>-6.8</v>
       </c>
       <c r="D158" t="n">
-        <v>691.9035</v>
+        <v>177.979</v>
       </c>
       <c r="E158" t="n">
-        <v>-22.3</v>
+        <v>-20.1</v>
       </c>
       <c r="F158" t="n">
-        <v>2944.2194</v>
+        <v>791.5981</v>
       </c>
       <c r="G158" t="n">
-        <v>-21.4</v>
+        <v>-10.2</v>
+      </c>
+      <c r="H158" t="n">
+        <v>142.7194</v>
+      </c>
+      <c r="I158" t="n">
+        <v>73.99670000000002</v>
+      </c>
+      <c r="J158" t="n">
+        <v>216.7161000000001</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>242.4875</v>
+        <v>786.9055</v>
       </c>
       <c r="C159" t="n">
-        <v>-12.9</v>
+        <v>-9.4</v>
       </c>
       <c r="D159" t="n">
-        <v>54.2953</v>
+        <v>232.5228</v>
       </c>
       <c r="E159" t="n">
-        <v>-31.8</v>
+        <v>-26.8</v>
       </c>
       <c r="F159" t="n">
-        <v>296.7828</v>
+        <v>1019.4283</v>
       </c>
       <c r="G159" t="n">
-        <v>-17.1</v>
+        <v>-14</v>
+      </c>
+      <c r="H159" t="n">
+        <v>173.2864</v>
+      </c>
+      <c r="I159" t="n">
+        <v>54.54379999999998</v>
+      </c>
+      <c r="J159" t="n">
+        <v>227.8302</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>470.8997</v>
+        <v>1017.5263</v>
       </c>
       <c r="C160" t="n">
-        <v>-4.6</v>
+        <v>-10</v>
       </c>
       <c r="D160" t="n">
-        <v>103.9823</v>
+        <v>313.0055</v>
       </c>
       <c r="E160" t="n">
-        <v>-30.3</v>
+        <v>-18.4</v>
       </c>
       <c r="F160" t="n">
-        <v>574.8819999999999</v>
+        <v>1330.5318</v>
       </c>
       <c r="G160" t="n">
-        <v>-10.6</v>
+        <v>-12.1</v>
+      </c>
+      <c r="H160" t="n">
+        <v>230.6208</v>
+      </c>
+      <c r="I160" t="n">
+        <v>80.48269999999999</v>
+      </c>
+      <c r="J160" t="n">
+        <v>311.1034999999999</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>613.6191</v>
+        <v>1196.1018</v>
       </c>
       <c r="C161" t="n">
-        <v>-6.8</v>
+        <v>-13</v>
       </c>
       <c r="D161" t="n">
-        <v>177.979</v>
+        <v>357.5159</v>
       </c>
       <c r="E161" t="n">
-        <v>-20.1</v>
+        <v>-17.3</v>
       </c>
       <c r="F161" t="n">
-        <v>791.5981</v>
+        <v>1553.6177</v>
       </c>
       <c r="G161" t="n">
-        <v>-10.2</v>
+        <v>-14</v>
+      </c>
+      <c r="H161" t="n">
+        <v>178.5754999999999</v>
+      </c>
+      <c r="I161" t="n">
+        <v>44.5104</v>
+      </c>
+      <c r="J161" t="n">
+        <v>223.0859</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>786.9055</v>
+        <v>1311.5034</v>
       </c>
       <c r="C162" t="n">
-        <v>-9.4</v>
+        <v>-17.8</v>
       </c>
       <c r="D162" t="n">
-        <v>232.5228</v>
+        <v>381.7761</v>
       </c>
       <c r="E162" t="n">
-        <v>-26.8</v>
+        <v>-24.7</v>
       </c>
       <c r="F162" t="n">
-        <v>1019.4283</v>
+        <v>1693.2795</v>
       </c>
       <c r="G162" t="n">
-        <v>-14</v>
+        <v>-19.5</v>
+      </c>
+      <c r="H162" t="n">
+        <v>115.4016000000001</v>
+      </c>
+      <c r="I162" t="n">
+        <v>24.2602</v>
+      </c>
+      <c r="J162" t="n">
+        <v>139.6618000000001</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1017.5263</v>
+        <v>1533.2946</v>
       </c>
       <c r="C163" t="n">
-        <v>-10</v>
+        <v>-18.7</v>
       </c>
       <c r="D163" t="n">
-        <v>313.0055</v>
+        <v>452.493</v>
       </c>
       <c r="E163" t="n">
-        <v>-18.4</v>
+        <v>-23.1</v>
       </c>
       <c r="F163" t="n">
-        <v>1330.5318</v>
+        <v>1985.7876</v>
       </c>
       <c r="G163" t="n">
-        <v>-12.1</v>
+        <v>-19.7</v>
+      </c>
+      <c r="H163" t="n">
+        <v>221.7911999999999</v>
+      </c>
+      <c r="I163" t="n">
+        <v>70.71690000000001</v>
+      </c>
+      <c r="J163" t="n">
+        <v>292.5081</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1196.1018</v>
+        <v>1713.9501</v>
       </c>
       <c r="C164" t="n">
-        <v>-13</v>
+        <v>-19.5</v>
       </c>
       <c r="D164" t="n">
-        <v>357.5159</v>
+        <v>499.3199</v>
       </c>
       <c r="E164" t="n">
-        <v>-17.3</v>
+        <v>-23.1</v>
       </c>
       <c r="F164" t="n">
-        <v>1553.6177</v>
+        <v>2213.27</v>
       </c>
       <c r="G164" t="n">
-        <v>-14</v>
+        <v>-20.4</v>
+      </c>
+      <c r="H164" t="n">
+        <v>180.6555000000001</v>
+      </c>
+      <c r="I164" t="n">
+        <v>46.82690000000002</v>
+      </c>
+      <c r="J164" t="n">
+        <v>227.4823999999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1311.5034</v>
+        <v>1919.6386</v>
       </c>
       <c r="C165" t="n">
-        <v>-17.8</v>
+        <v>-20.6</v>
       </c>
       <c r="D165" t="n">
-        <v>381.7761</v>
+        <v>550.4796</v>
       </c>
       <c r="E165" t="n">
-        <v>-24.7</v>
+        <v>-22.1</v>
       </c>
       <c r="F165" t="n">
-        <v>1693.2795</v>
+        <v>2470.1182</v>
       </c>
       <c r="G165" t="n">
-        <v>-19.5</v>
+        <v>-20.9</v>
+      </c>
+      <c r="H165" t="n">
+        <v>205.6885</v>
+      </c>
+      <c r="I165" t="n">
+        <v>51.15969999999999</v>
+      </c>
+      <c r="J165" t="n">
+        <v>256.8481999999999</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1533.2946</v>
+        <v>2252.3159</v>
       </c>
       <c r="C166" t="n">
-        <v>-18.7</v>
+        <v>-21.2</v>
       </c>
       <c r="D166" t="n">
-        <v>452.493</v>
+        <v>691.9035</v>
       </c>
       <c r="E166" t="n">
-        <v>-23.1</v>
+        <v>-22.3</v>
       </c>
       <c r="F166" t="n">
-        <v>1985.7876</v>
+        <v>2944.2194</v>
       </c>
       <c r="G166" t="n">
-        <v>-19.7</v>
+        <v>-21.4</v>
+      </c>
+      <c r="H166" t="n">
+        <v>332.6773000000001</v>
+      </c>
+      <c r="I166" t="n">
+        <v>141.4239</v>
+      </c>
+      <c r="J166" t="n">
+        <v>474.1012000000001</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1864.0297</v>
+        <v>194.0507</v>
       </c>
       <c r="C167" t="n">
-        <v>8.800000000000001</v>
+        <v>-20</v>
       </c>
       <c r="D167" t="n">
-        <v>773.6659</v>
+        <v>56.5425</v>
       </c>
       <c r="E167" t="n">
-        <v>54.9</v>
+        <v>4.1</v>
       </c>
       <c r="F167" t="n">
-        <v>2637.6956</v>
+        <v>250.5932</v>
       </c>
       <c r="G167" t="n">
-        <v>19.2</v>
+        <v>-15.6</v>
+      </c>
+      <c r="H167" t="n">
+        <v>194.0507</v>
+      </c>
+      <c r="I167" t="n">
+        <v>56.5425</v>
+      </c>
+      <c r="J167" t="n">
+        <v>250.5932</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2237.314</v>
+        <v>323.8234</v>
       </c>
       <c r="C168" t="n">
-        <v>16.5</v>
+        <v>-31.2</v>
       </c>
       <c r="D168" t="n">
-        <v>898.4742</v>
+        <v>98.90470000000001</v>
       </c>
       <c r="E168" t="n">
-        <v>63.2</v>
+        <v>-4.9</v>
       </c>
       <c r="F168" t="n">
-        <v>3135.7882</v>
+        <v>422.7281</v>
       </c>
       <c r="G168" t="n">
-        <v>26.9</v>
+        <v>-26.5</v>
+      </c>
+      <c r="H168" t="n">
+        <v>129.7727</v>
+      </c>
+      <c r="I168" t="n">
+        <v>42.36220000000001</v>
+      </c>
+      <c r="J168" t="n">
+        <v>172.1349</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2715.9909</v>
+        <v>514.5726</v>
       </c>
       <c r="C169" t="n">
-        <v>19.6</v>
+        <v>-16.1</v>
       </c>
       <c r="D169" t="n">
-        <v>1044.9338</v>
+        <v>171.8621</v>
       </c>
       <c r="E169" t="n">
-        <v>51</v>
+        <v>-3.4</v>
       </c>
       <c r="F169" t="n">
-        <v>3760.9247</v>
+        <v>686.4347</v>
       </c>
       <c r="G169" t="n">
-        <v>26.9</v>
+        <v>-13.3</v>
+      </c>
+      <c r="H169" t="n">
+        <v>190.7492</v>
+      </c>
+      <c r="I169" t="n">
+        <v>72.95739999999999</v>
+      </c>
+      <c r="J169" t="n">
+        <v>263.7066</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>194.0507</v>
+        <v>672.0066</v>
       </c>
       <c r="C170" t="n">
-        <v>-20</v>
+        <v>-14.6</v>
       </c>
       <c r="D170" t="n">
-        <v>56.5425</v>
+        <v>220.6174</v>
       </c>
       <c r="E170" t="n">
-        <v>4.1</v>
+        <v>-5.1</v>
       </c>
       <c r="F170" t="n">
-        <v>250.5932</v>
+        <v>892.624</v>
       </c>
       <c r="G170" t="n">
-        <v>-15.6</v>
+        <v>-12.4</v>
+      </c>
+      <c r="H170" t="n">
+        <v>157.4340000000001</v>
+      </c>
+      <c r="I170" t="n">
+        <v>48.75530000000001</v>
+      </c>
+      <c r="J170" t="n">
+        <v>206.1893</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>323.8234</v>
+        <v>955.6632</v>
       </c>
       <c r="C171" t="n">
-        <v>-31.2</v>
+        <v>-6.1</v>
       </c>
       <c r="D171" t="n">
-        <v>98.90470000000001</v>
+        <v>351.3543</v>
       </c>
       <c r="E171" t="n">
-        <v>-4.9</v>
+        <v>12.3</v>
       </c>
       <c r="F171" t="n">
-        <v>422.7281</v>
+        <v>1307.0175</v>
       </c>
       <c r="G171" t="n">
-        <v>-26.5</v>
+        <v>-1.8</v>
+      </c>
+      <c r="H171" t="n">
+        <v>283.6565999999999</v>
+      </c>
+      <c r="I171" t="n">
+        <v>130.7369</v>
+      </c>
+      <c r="J171" t="n">
+        <v>414.3934999999999</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>514.5726</v>
+        <v>1165.8073</v>
       </c>
       <c r="C172" t="n">
-        <v>-16.1</v>
+        <v>-2.5</v>
       </c>
       <c r="D172" t="n">
-        <v>171.8621</v>
+        <v>419.8401</v>
       </c>
       <c r="E172" t="n">
-        <v>-3.4</v>
+        <v>17.4</v>
       </c>
       <c r="F172" t="n">
-        <v>686.4347</v>
+        <v>1585.6474</v>
       </c>
       <c r="G172" t="n">
-        <v>-13.3</v>
+        <v>2.1</v>
+      </c>
+      <c r="H172" t="n">
+        <v>210.1441</v>
+      </c>
+      <c r="I172" t="n">
+        <v>68.48579999999998</v>
+      </c>
+      <c r="J172" t="n">
+        <v>278.6299000000001</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>672.0066</v>
+        <v>1388.9801</v>
       </c>
       <c r="C173" t="n">
-        <v>-14.6</v>
+        <v>5.9</v>
       </c>
       <c r="D173" t="n">
-        <v>220.6174</v>
+        <v>522.7401</v>
       </c>
       <c r="E173" t="n">
-        <v>-5.1</v>
+        <v>36.9</v>
       </c>
       <c r="F173" t="n">
-        <v>892.624</v>
+        <v>1911.7202</v>
       </c>
       <c r="G173" t="n">
-        <v>-12.4</v>
+        <v>12.9</v>
+      </c>
+      <c r="H173" t="n">
+        <v>223.1728000000001</v>
+      </c>
+      <c r="I173" t="n">
+        <v>102.9</v>
+      </c>
+      <c r="J173" t="n">
+        <v>326.0727999999999</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>955.6632</v>
+        <v>1680.832</v>
       </c>
       <c r="C174" t="n">
-        <v>-6.1</v>
+        <v>9.6</v>
       </c>
       <c r="D174" t="n">
-        <v>351.3543</v>
+        <v>675.5284</v>
       </c>
       <c r="E174" t="n">
-        <v>12.3</v>
+        <v>49.3</v>
       </c>
       <c r="F174" t="n">
-        <v>1307.0175</v>
+        <v>2356</v>
       </c>
       <c r="G174" t="n">
-        <v>-1.8</v>
+        <v>18.7</v>
+      </c>
+      <c r="H174" t="n">
+        <v>291.8519000000001</v>
+      </c>
+      <c r="I174" t="n">
+        <v>152.7883</v>
+      </c>
+      <c r="J174" t="n">
+        <v>444.2798</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1165.8073</v>
+        <v>1864.0297</v>
       </c>
       <c r="C175" t="n">
-        <v>-2.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D175" t="n">
-        <v>419.8401</v>
+        <v>773.6659</v>
       </c>
       <c r="E175" t="n">
-        <v>17.4</v>
+        <v>54.9</v>
       </c>
       <c r="F175" t="n">
-        <v>1585.6474</v>
+        <v>2637.6956</v>
       </c>
       <c r="G175" t="n">
-        <v>2.1</v>
+        <v>19.2</v>
+      </c>
+      <c r="H175" t="n">
+        <v>183.1976999999999</v>
+      </c>
+      <c r="I175" t="n">
+        <v>98.13749999999993</v>
+      </c>
+      <c r="J175" t="n">
+        <v>281.6956</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1388.9801</v>
+        <v>2237.314</v>
       </c>
       <c r="C176" t="n">
-        <v>5.9</v>
+        <v>16.5</v>
       </c>
       <c r="D176" t="n">
-        <v>522.7401</v>
+        <v>898.4742</v>
       </c>
       <c r="E176" t="n">
-        <v>36.9</v>
+        <v>63.2</v>
       </c>
       <c r="F176" t="n">
-        <v>1911.7202</v>
+        <v>3135.7882</v>
       </c>
       <c r="G176" t="n">
-        <v>12.9</v>
+        <v>26.9</v>
+      </c>
+      <c r="H176" t="n">
+        <v>373.2842999999998</v>
+      </c>
+      <c r="I176" t="n">
+        <v>124.8083</v>
+      </c>
+      <c r="J176" t="n">
+        <v>498.0925999999999</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1680.832</v>
+        <v>2715.9909</v>
       </c>
       <c r="C177" t="n">
-        <v>9.6</v>
+        <v>19.6</v>
       </c>
       <c r="D177" t="n">
-        <v>675.5284</v>
+        <v>1044.9338</v>
       </c>
       <c r="E177" t="n">
-        <v>49.3</v>
+        <v>51</v>
       </c>
       <c r="F177" t="n">
-        <v>2356</v>
+        <v>3760.9247</v>
       </c>
       <c r="G177" t="n">
-        <v>18.7</v>
+        <v>26.9</v>
+      </c>
+      <c r="H177" t="n">
+        <v>478.6768999999999</v>
+      </c>
+      <c r="I177" t="n">
+        <v>146.4596</v>
+      </c>
+      <c r="J177" t="n">
+        <v>625.1365000000001</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>3020.1354</v>
+        <v>244.2518</v>
       </c>
       <c r="C178" t="n">
-        <v>62</v>
+        <v>25.9</v>
       </c>
       <c r="D178" t="n">
-        <v>1107.3308</v>
+        <v>80.73399999999999</v>
       </c>
       <c r="E178" t="n">
-        <v>43.1</v>
+        <v>42.8</v>
       </c>
       <c r="F178" t="n">
-        <v>4127.4662</v>
+        <v>324.9858</v>
       </c>
       <c r="G178" t="n">
-        <v>56.5</v>
+        <v>29.7</v>
+      </c>
+      <c r="H178" t="n">
+        <v>244.2518</v>
+      </c>
+      <c r="I178" t="n">
+        <v>80.73399999999999</v>
+      </c>
+      <c r="J178" t="n">
+        <v>324.9858</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>3380.4756</v>
+        <v>530.2931</v>
       </c>
       <c r="C179" t="n">
-        <v>51.1</v>
+        <v>63.8</v>
       </c>
       <c r="D179" t="n">
-        <v>1211.954</v>
+        <v>185.8815</v>
       </c>
       <c r="E179" t="n">
-        <v>34.9</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="F179" t="n">
-        <v>4592.4296</v>
+        <v>716.1746000000001</v>
       </c>
       <c r="G179" t="n">
-        <v>46.5</v>
+        <v>69.40000000000001</v>
+      </c>
+      <c r="H179" t="n">
+        <v>286.0413</v>
+      </c>
+      <c r="I179" t="n">
+        <v>105.1475</v>
+      </c>
+      <c r="J179" t="n">
+        <v>391.1888000000001</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>4004.7532</v>
+        <v>809.4011</v>
       </c>
       <c r="C180" t="n">
-        <v>47.5</v>
+        <v>57.3</v>
       </c>
       <c r="D180" t="n">
-        <v>1479.0588</v>
+        <v>289.2716</v>
       </c>
       <c r="E180" t="n">
-        <v>41.5</v>
+        <v>68.3</v>
       </c>
       <c r="F180" t="n">
-        <v>5484</v>
+        <v>1098.6727</v>
       </c>
       <c r="G180" t="n">
-        <v>45.8</v>
+        <v>60.1</v>
+      </c>
+      <c r="H180" t="n">
+        <v>279.1080000000001</v>
+      </c>
+      <c r="I180" t="n">
+        <v>103.3901</v>
+      </c>
+      <c r="J180" t="n">
+        <v>382.4981</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>244.2518</v>
+        <v>1132.2217</v>
       </c>
       <c r="C181" t="n">
-        <v>25.9</v>
+        <v>68.5</v>
       </c>
       <c r="D181" t="n">
-        <v>80.73399999999999</v>
+        <v>409.7965</v>
       </c>
       <c r="E181" t="n">
-        <v>42.8</v>
+        <v>85.7</v>
       </c>
       <c r="F181" t="n">
-        <v>324.9858</v>
+        <v>1542.0182</v>
       </c>
       <c r="G181" t="n">
-        <v>29.7</v>
+        <v>72.8</v>
+      </c>
+      <c r="H181" t="n">
+        <v>322.8206</v>
+      </c>
+      <c r="I181" t="n">
+        <v>120.5249</v>
+      </c>
+      <c r="J181" t="n">
+        <v>443.3454999999999</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>530.2931</v>
+        <v>1557.4693</v>
       </c>
       <c r="C182" t="n">
-        <v>63.8</v>
+        <v>63</v>
       </c>
       <c r="D182" t="n">
-        <v>185.8815</v>
+        <v>554.2427</v>
       </c>
       <c r="E182" t="n">
-        <v>87.90000000000001</v>
+        <v>57.7</v>
       </c>
       <c r="F182" t="n">
-        <v>716.1746000000001</v>
+        <v>2111.712</v>
       </c>
       <c r="G182" t="n">
-        <v>69.40000000000001</v>
+        <v>61.6</v>
+      </c>
+      <c r="H182" t="n">
+        <v>425.2475999999999</v>
+      </c>
+      <c r="I182" t="n">
+        <v>144.4462</v>
+      </c>
+      <c r="J182" t="n">
+        <v>569.6938</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>809.4011</v>
+        <v>1881.9347</v>
       </c>
       <c r="C183" t="n">
-        <v>57.3</v>
+        <v>61.4</v>
       </c>
       <c r="D183" t="n">
-        <v>289.2716</v>
+        <v>739.6002</v>
       </c>
       <c r="E183" t="n">
-        <v>68.3</v>
+        <v>76.2</v>
       </c>
       <c r="F183" t="n">
-        <v>1098.6727</v>
+        <v>2621.5349</v>
       </c>
       <c r="G183" t="n">
-        <v>60.1</v>
+        <v>65.3</v>
+      </c>
+      <c r="H183" t="n">
+        <v>324.4654</v>
+      </c>
+      <c r="I183" t="n">
+        <v>185.3575</v>
+      </c>
+      <c r="J183" t="n">
+        <v>509.8229000000001</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1132.2217</v>
+        <v>2130.5336</v>
       </c>
       <c r="C184" t="n">
-        <v>68.5</v>
+        <v>53.4</v>
       </c>
       <c r="D184" t="n">
-        <v>409.7965</v>
+        <v>854.4934</v>
       </c>
       <c r="E184" t="n">
-        <v>85.7</v>
+        <v>63.5</v>
       </c>
       <c r="F184" t="n">
-        <v>1542.0182</v>
+        <v>2985.027</v>
       </c>
       <c r="G184" t="n">
-        <v>72.8</v>
+        <v>56.1</v>
+      </c>
+      <c r="H184" t="n">
+        <v>248.5989000000002</v>
+      </c>
+      <c r="I184" t="n">
+        <v>114.8932</v>
+      </c>
+      <c r="J184" t="n">
+        <v>363.4920999999999</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1557.4693</v>
+        <v>2574.3672</v>
       </c>
       <c r="C185" t="n">
-        <v>63</v>
+        <v>53.2</v>
       </c>
       <c r="D185" t="n">
-        <v>554.2427</v>
+        <v>978.1178</v>
       </c>
       <c r="E185" t="n">
-        <v>57.7</v>
+        <v>44.8</v>
       </c>
       <c r="F185" t="n">
-        <v>2111.712</v>
+        <v>3552.485</v>
       </c>
       <c r="G185" t="n">
-        <v>61.6</v>
+        <v>50.8</v>
+      </c>
+      <c r="H185" t="n">
+        <v>443.8335999999999</v>
+      </c>
+      <c r="I185" t="n">
+        <v>123.6244</v>
+      </c>
+      <c r="J185" t="n">
+        <v>567.4580000000001</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1881.9347</v>
+        <v>3020.1354</v>
       </c>
       <c r="C186" t="n">
-        <v>61.4</v>
+        <v>62</v>
       </c>
       <c r="D186" t="n">
-        <v>739.6002</v>
+        <v>1107.3308</v>
       </c>
       <c r="E186" t="n">
-        <v>76.2</v>
+        <v>43.1</v>
       </c>
       <c r="F186" t="n">
-        <v>2621.5349</v>
+        <v>4127.4662</v>
       </c>
       <c r="G186" t="n">
-        <v>65.3</v>
+        <v>56.5</v>
+      </c>
+      <c r="H186" t="n">
+        <v>445.7682</v>
+      </c>
+      <c r="I186" t="n">
+        <v>129.213</v>
+      </c>
+      <c r="J186" t="n">
+        <v>574.9811999999997</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2130.5336</v>
+        <v>3380.4756</v>
       </c>
       <c r="C187" t="n">
-        <v>53.4</v>
+        <v>51.1</v>
       </c>
       <c r="D187" t="n">
-        <v>854.4934</v>
+        <v>1211.954</v>
       </c>
       <c r="E187" t="n">
-        <v>63.5</v>
+        <v>34.9</v>
       </c>
       <c r="F187" t="n">
-        <v>2985.027</v>
+        <v>4592.4296</v>
       </c>
       <c r="G187" t="n">
-        <v>56.1</v>
+        <v>46.5</v>
+      </c>
+      <c r="H187" t="n">
+        <v>360.3402000000001</v>
+      </c>
+      <c r="I187" t="n">
+        <v>104.6232</v>
+      </c>
+      <c r="J187" t="n">
+        <v>464.9634000000005</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2574.3672</v>
+        <v>4004.7532</v>
       </c>
       <c r="C188" t="n">
-        <v>53.2</v>
+        <v>47.5</v>
       </c>
       <c r="D188" t="n">
-        <v>978.1178</v>
+        <v>1479.0588</v>
       </c>
       <c r="E188" t="n">
-        <v>44.8</v>
+        <v>41.5</v>
       </c>
       <c r="F188" t="n">
-        <v>3552.485</v>
+        <v>5484</v>
       </c>
       <c r="G188" t="n">
-        <v>50.8</v>
+        <v>45.8</v>
+      </c>
+      <c r="H188" t="n">
+        <v>624.2775999999999</v>
+      </c>
+      <c r="I188" t="n">
+        <v>267.1048000000001</v>
+      </c>
+      <c r="J188" t="n">
+        <v>891.5703999999996</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>3558.3414</v>
+        <v>332.9402</v>
       </c>
       <c r="C189" t="n">
-        <v>17.8</v>
+        <v>36.3</v>
       </c>
       <c r="D189" t="n">
-        <v>1404.1956</v>
+        <v>152.2527</v>
       </c>
       <c r="E189" t="n">
-        <v>26.8</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="F189" t="n">
-        <v>4962.537</v>
+        <v>485.1929</v>
       </c>
       <c r="G189" t="n">
-        <v>20.2</v>
+        <v>49.3</v>
+      </c>
+      <c r="H189" t="n">
+        <v>332.9402</v>
+      </c>
+      <c r="I189" t="n">
+        <v>152.2527</v>
+      </c>
+      <c r="J189" t="n">
+        <v>485.1929</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3919.8287</v>
+        <v>890.9871000000001</v>
       </c>
       <c r="C190" t="n">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D190" t="n">
-        <v>1565.1739</v>
+        <v>311.346</v>
       </c>
       <c r="E190" t="n">
-        <v>29.1</v>
+        <v>67.5</v>
       </c>
       <c r="F190" t="n">
-        <v>5485.0026</v>
+        <v>1202.3331</v>
       </c>
       <c r="G190" t="n">
-        <v>19.4</v>
+        <v>67.90000000000001</v>
+      </c>
+      <c r="H190" t="n">
+        <v>558.0469000000001</v>
+      </c>
+      <c r="I190" t="n">
+        <v>159.0933</v>
+      </c>
+      <c r="J190" t="n">
+        <v>717.1402</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>4598.6142</v>
+        <v>1246.1395</v>
       </c>
       <c r="C191" t="n">
-        <v>14.8</v>
+        <v>54</v>
       </c>
       <c r="D191" t="n">
-        <v>1842.7445</v>
+        <v>405.7227</v>
       </c>
       <c r="E191" t="n">
-        <v>24.6</v>
+        <v>40.3</v>
       </c>
       <c r="F191" t="n">
-        <v>6441.3587</v>
+        <v>1651.8622</v>
       </c>
       <c r="G191" t="n">
-        <v>17.5</v>
+        <v>50.4</v>
+      </c>
+      <c r="H191" t="n">
+        <v>355.1523999999999</v>
+      </c>
+      <c r="I191" t="n">
+        <v>94.37669999999997</v>
+      </c>
+      <c r="J191" t="n">
+        <v>449.5291</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>332.9402</v>
+        <v>1561.0242</v>
       </c>
       <c r="C192" t="n">
-        <v>36.3</v>
+        <v>37.9</v>
       </c>
       <c r="D192" t="n">
-        <v>152.2527</v>
+        <v>557.7148</v>
       </c>
       <c r="E192" t="n">
-        <v>88.59999999999999</v>
+        <v>36.1</v>
       </c>
       <c r="F192" t="n">
-        <v>485.1929</v>
+        <v>2118.739</v>
       </c>
       <c r="G192" t="n">
-        <v>49.3</v>
+        <v>37.4</v>
+      </c>
+      <c r="H192" t="n">
+        <v>314.8847000000001</v>
+      </c>
+      <c r="I192" t="n">
+        <v>151.9921</v>
+      </c>
+      <c r="J192" t="n">
+        <v>466.8768</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>890.9871000000001</v>
+        <v>2166.1126</v>
       </c>
       <c r="C193" t="n">
-        <v>68</v>
+        <v>39.1</v>
       </c>
       <c r="D193" t="n">
-        <v>311.346</v>
+        <v>766.063</v>
       </c>
       <c r="E193" t="n">
-        <v>67.5</v>
+        <v>38.2</v>
       </c>
       <c r="F193" t="n">
-        <v>1202.3331</v>
+        <v>2932.1756</v>
       </c>
       <c r="G193" t="n">
-        <v>67.90000000000001</v>
+        <v>38.9</v>
+      </c>
+      <c r="H193" t="n">
+        <v>605.0883999999999</v>
+      </c>
+      <c r="I193" t="n">
+        <v>208.3482</v>
+      </c>
+      <c r="J193" t="n">
+        <v>813.4366</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1246.1395</v>
+        <v>2429.5331</v>
       </c>
       <c r="C194" t="n">
-        <v>54</v>
+        <v>29.1</v>
       </c>
       <c r="D194" t="n">
-        <v>405.7227</v>
+        <v>910.4674</v>
       </c>
       <c r="E194" t="n">
-        <v>40.3</v>
+        <v>23.1</v>
       </c>
       <c r="F194" t="n">
-        <v>1651.8622</v>
+        <v>3340.0005</v>
       </c>
       <c r="G194" t="n">
-        <v>50.4</v>
+        <v>27.4</v>
+      </c>
+      <c r="H194" t="n">
+        <v>263.4205000000002</v>
+      </c>
+      <c r="I194" t="n">
+        <v>144.4044</v>
+      </c>
+      <c r="J194" t="n">
+        <v>407.8249000000001</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1561.0242</v>
+        <v>2707.4599</v>
       </c>
       <c r="C195" t="n">
-        <v>37.9</v>
+        <v>27.1</v>
       </c>
       <c r="D195" t="n">
-        <v>557.7148</v>
+        <v>1071.0776</v>
       </c>
       <c r="E195" t="n">
-        <v>36.1</v>
+        <v>25.3</v>
       </c>
       <c r="F195" t="n">
-        <v>2118.739</v>
+        <v>3778.5375</v>
       </c>
       <c r="G195" t="n">
-        <v>37.4</v>
+        <v>26.6</v>
+      </c>
+      <c r="H195" t="n">
+        <v>277.9267999999997</v>
+      </c>
+      <c r="I195" t="n">
+        <v>160.6102000000001</v>
+      </c>
+      <c r="J195" t="n">
+        <v>438.5369999999998</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2166.1126</v>
+        <v>3183.4163</v>
       </c>
       <c r="C196" t="n">
-        <v>39.1</v>
+        <v>23.7</v>
       </c>
       <c r="D196" t="n">
-        <v>766.063</v>
+        <v>1264.4872</v>
       </c>
       <c r="E196" t="n">
-        <v>38.2</v>
+        <v>29.3</v>
       </c>
       <c r="F196" t="n">
-        <v>2932.1756</v>
+        <v>4447.9035</v>
       </c>
       <c r="G196" t="n">
-        <v>38.9</v>
+        <v>25.2</v>
+      </c>
+      <c r="H196" t="n">
+        <v>475.9564</v>
+      </c>
+      <c r="I196" t="n">
+        <v>193.4096</v>
+      </c>
+      <c r="J196" t="n">
+        <v>669.3660000000004</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2429.5331</v>
+        <v>3558.3414</v>
       </c>
       <c r="C197" t="n">
-        <v>29.1</v>
+        <v>17.8</v>
       </c>
       <c r="D197" t="n">
-        <v>910.4674</v>
+        <v>1404.1956</v>
       </c>
       <c r="E197" t="n">
-        <v>23.1</v>
+        <v>26.8</v>
       </c>
       <c r="F197" t="n">
-        <v>3340.0005</v>
+        <v>4962.537</v>
       </c>
       <c r="G197" t="n">
-        <v>27.4</v>
+        <v>20.2</v>
+      </c>
+      <c r="H197" t="n">
+        <v>374.9250999999999</v>
+      </c>
+      <c r="I197" t="n">
+        <v>139.7084</v>
+      </c>
+      <c r="J197" t="n">
+        <v>514.6334999999999</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>2707.4599</v>
+        <v>3919.8287</v>
       </c>
       <c r="C198" t="n">
-        <v>27.1</v>
+        <v>16</v>
       </c>
       <c r="D198" t="n">
-        <v>1071.0776</v>
+        <v>1565.1739</v>
       </c>
       <c r="E198" t="n">
-        <v>25.3</v>
+        <v>29.1</v>
       </c>
       <c r="F198" t="n">
-        <v>3778.5375</v>
+        <v>5485.0026</v>
       </c>
       <c r="G198" t="n">
-        <v>26.6</v>
+        <v>19.4</v>
+      </c>
+      <c r="H198" t="n">
+        <v>361.4873000000002</v>
+      </c>
+      <c r="I198" t="n">
+        <v>160.9783</v>
+      </c>
+      <c r="J198" t="n">
+        <v>522.4655999999995</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>3183.4163</v>
+        <v>4598.6142</v>
       </c>
       <c r="C199" t="n">
-        <v>23.7</v>
+        <v>14.8</v>
       </c>
       <c r="D199" t="n">
-        <v>1264.4872</v>
+        <v>1842.7445</v>
       </c>
       <c r="E199" t="n">
-        <v>29.3</v>
+        <v>24.6</v>
       </c>
       <c r="F199" t="n">
-        <v>4447.9035</v>
+        <v>6441.3587</v>
       </c>
       <c r="G199" t="n">
-        <v>25.2</v>
+        <v>17.5</v>
+      </c>
+      <c r="H199" t="n">
+        <v>678.7855</v>
+      </c>
+      <c r="I199" t="n">
+        <v>277.5706</v>
+      </c>
+      <c r="J199" t="n">
+        <v>956.3561</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>3515.843</v>
+        <v>405.0226</v>
       </c>
       <c r="C200" t="n">
-        <v>-1.2</v>
+        <v>21.7</v>
       </c>
       <c r="D200" t="n">
-        <v>1122.6528</v>
+        <v>133.8045</v>
       </c>
       <c r="E200" t="n">
-        <v>-20.1</v>
+        <v>-12.1</v>
       </c>
       <c r="F200" t="n">
-        <v>4638.4958</v>
+        <v>538.8271</v>
       </c>
       <c r="G200" t="n">
-        <v>-6.5</v>
+        <v>11.1</v>
+      </c>
+      <c r="H200" t="n">
+        <v>405.0226</v>
+      </c>
+      <c r="I200" t="n">
+        <v>133.8045</v>
+      </c>
+      <c r="J200" t="n">
+        <v>538.8271</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>3890.5288</v>
+        <v>810.0744999999999</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.7</v>
+        <v>-9.1</v>
       </c>
       <c r="D201" t="n">
-        <v>1245.8912</v>
+        <v>293.3442</v>
       </c>
       <c r="E201" t="n">
-        <v>-20.4</v>
+        <v>-5.8</v>
       </c>
       <c r="F201" t="n">
-        <v>5136.42</v>
+        <v>1103.4187</v>
       </c>
       <c r="G201" t="n">
-        <v>-6.4</v>
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="H201" t="n">
+        <v>405.0518999999999</v>
+      </c>
+      <c r="I201" t="n">
+        <v>159.5397</v>
+      </c>
+      <c r="J201" t="n">
+        <v>564.5916</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>4681.4229</v>
+        <v>1164.2491</v>
       </c>
       <c r="C202" t="n">
-        <v>1.8</v>
+        <v>-6.6</v>
       </c>
       <c r="D202" t="n">
-        <v>1595.4072</v>
+        <v>435.1686</v>
       </c>
       <c r="E202" t="n">
-        <v>-13.4</v>
+        <v>7.3</v>
       </c>
       <c r="F202" t="n">
-        <v>6276.8301</v>
+        <v>1599.4177</v>
       </c>
       <c r="G202" t="n">
-        <v>-2.6</v>
+        <v>-3.2</v>
+      </c>
+      <c r="H202" t="n">
+        <v>354.1746000000001</v>
+      </c>
+      <c r="I202" t="n">
+        <v>141.8244</v>
+      </c>
+      <c r="J202" t="n">
+        <v>495.999</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>405.0226</v>
+        <v>1547.0779</v>
       </c>
       <c r="C203" t="n">
-        <v>21.7</v>
+        <v>-0.9</v>
       </c>
       <c r="D203" t="n">
-        <v>133.8045</v>
+        <v>548.301</v>
       </c>
       <c r="E203" t="n">
-        <v>-12.1</v>
+        <v>-1.7</v>
       </c>
       <c r="F203" t="n">
-        <v>538.8271</v>
+        <v>2095.3789</v>
       </c>
       <c r="G203" t="n">
-        <v>11.1</v>
+        <v>-1.1</v>
+      </c>
+      <c r="H203" t="n">
+        <v>382.8288</v>
+      </c>
+      <c r="I203" t="n">
+        <v>113.1324</v>
+      </c>
+      <c r="J203" t="n">
+        <v>495.9612000000002</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>810.0744999999999</v>
+        <v>2123.8875</v>
       </c>
       <c r="C204" t="n">
-        <v>-9.1</v>
+        <v>-1.9</v>
       </c>
       <c r="D204" t="n">
-        <v>293.3442</v>
+        <v>713.4378</v>
       </c>
       <c r="E204" t="n">
-        <v>-5.8</v>
+        <v>-6.9</v>
       </c>
       <c r="F204" t="n">
-        <v>1103.4187</v>
+        <v>2837.3253</v>
       </c>
       <c r="G204" t="n">
-        <v>-8.199999999999999</v>
+        <v>-3.2</v>
+      </c>
+      <c r="H204" t="n">
+        <v>576.8095999999998</v>
+      </c>
+      <c r="I204" t="n">
+        <v>165.1368</v>
+      </c>
+      <c r="J204" t="n">
+        <v>741.9463999999998</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1164.2491</v>
+        <v>2421.2358</v>
       </c>
       <c r="C205" t="n">
-        <v>-6.6</v>
+        <v>-0.3</v>
       </c>
       <c r="D205" t="n">
-        <v>435.1686</v>
+        <v>846.9737</v>
       </c>
       <c r="E205" t="n">
-        <v>7.3</v>
+        <v>-7</v>
       </c>
       <c r="F205" t="n">
-        <v>1599.4177</v>
+        <v>3268.2095</v>
       </c>
       <c r="G205" t="n">
-        <v>-3.2</v>
+        <v>-2.1</v>
+      </c>
+      <c r="H205" t="n">
+        <v>297.3483000000001</v>
+      </c>
+      <c r="I205" t="n">
+        <v>133.5359</v>
+      </c>
+      <c r="J205" t="n">
+        <v>430.8842</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1547.0779</v>
+        <v>2723.6592</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.9</v>
+        <v>0.6</v>
       </c>
       <c r="D206" t="n">
-        <v>548.301</v>
+        <v>930.735</v>
       </c>
       <c r="E206" t="n">
-        <v>-1.7</v>
+        <v>-13.1</v>
       </c>
       <c r="F206" t="n">
-        <v>2095.3789</v>
+        <v>3654.3942</v>
       </c>
       <c r="G206" t="n">
-        <v>-1.1</v>
+        <v>-3.3</v>
+      </c>
+      <c r="H206" t="n">
+        <v>302.4234000000001</v>
+      </c>
+      <c r="I206" t="n">
+        <v>83.76130000000001</v>
+      </c>
+      <c r="J206" t="n">
+        <v>386.1847000000002</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2123.8875</v>
+        <v>3190.1665</v>
       </c>
       <c r="C207" t="n">
-        <v>-1.9</v>
+        <v>0.2</v>
       </c>
       <c r="D207" t="n">
-        <v>713.4378</v>
+        <v>1034.2788</v>
       </c>
       <c r="E207" t="n">
-        <v>-6.9</v>
+        <v>-18.2</v>
       </c>
       <c r="F207" t="n">
-        <v>2837.3253</v>
+        <v>4224.4453</v>
       </c>
       <c r="G207" t="n">
-        <v>-3.2</v>
+        <v>-5</v>
+      </c>
+      <c r="H207" t="n">
+        <v>466.5072999999998</v>
+      </c>
+      <c r="I207" t="n">
+        <v>103.5438</v>
+      </c>
+      <c r="J207" t="n">
+        <v>570.0511000000001</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2421.2358</v>
+        <v>3515.843</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.3</v>
+        <v>-1.2</v>
       </c>
       <c r="D208" t="n">
-        <v>846.9737</v>
+        <v>1122.6528</v>
       </c>
       <c r="E208" t="n">
-        <v>-7</v>
+        <v>-20.1</v>
       </c>
       <c r="F208" t="n">
-        <v>3268.2095</v>
+        <v>4638.4958</v>
       </c>
       <c r="G208" t="n">
-        <v>-2.1</v>
+        <v>-6.5</v>
+      </c>
+      <c r="H208" t="n">
+        <v>325.6765</v>
+      </c>
+      <c r="I208" t="n">
+        <v>88.37400000000002</v>
+      </c>
+      <c r="J208" t="n">
+        <v>414.0504999999994</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2723.6592</v>
+        <v>3890.5288</v>
       </c>
       <c r="C209" t="n">
-        <v>0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="D209" t="n">
-        <v>930.735</v>
+        <v>1245.8912</v>
       </c>
       <c r="E209" t="n">
-        <v>-13.1</v>
+        <v>-20.4</v>
       </c>
       <c r="F209" t="n">
-        <v>3654.3942</v>
+        <v>5136.42</v>
       </c>
       <c r="G209" t="n">
-        <v>-3.3</v>
+        <v>-6.4</v>
+      </c>
+      <c r="H209" t="n">
+        <v>374.6858000000002</v>
+      </c>
+      <c r="I209" t="n">
+        <v>123.2384</v>
+      </c>
+      <c r="J209" t="n">
+        <v>497.9242000000004</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>3190.1665</v>
+        <v>4681.4229</v>
       </c>
       <c r="C210" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="D210" t="n">
-        <v>1034.2788</v>
+        <v>1595.4072</v>
       </c>
       <c r="E210" t="n">
-        <v>-18.2</v>
+        <v>-13.4</v>
       </c>
       <c r="F210" t="n">
-        <v>4224.4453</v>
+        <v>6276.8301</v>
       </c>
       <c r="G210" t="n">
-        <v>-5</v>
+        <v>-2.6</v>
+      </c>
+      <c r="H210" t="n">
+        <v>790.8940999999995</v>
+      </c>
+      <c r="I210" t="n">
+        <v>349.5160000000001</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1140.4101</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>3136.0518</v>
+        <v>370.1795</v>
       </c>
       <c r="C211" t="n">
-        <v>-10.8</v>
+        <v>-8.6</v>
       </c>
       <c r="D211" t="n">
-        <v>971.275</v>
+        <v>135.2157</v>
       </c>
       <c r="E211" t="n">
-        <v>-13.5</v>
+        <v>1.1</v>
       </c>
       <c r="F211" t="n">
-        <v>4107.3268</v>
+        <v>505.3952</v>
       </c>
       <c r="G211" t="n">
-        <v>-11.5</v>
+        <v>-6.2</v>
+      </c>
+      <c r="H211" t="n">
+        <v>370.1795</v>
+      </c>
+      <c r="I211" t="n">
+        <v>135.2157</v>
+      </c>
+      <c r="J211" t="n">
+        <v>505.3952</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>3467.6555</v>
+        <v>700.035</v>
       </c>
       <c r="C212" t="n">
-        <v>-10.9</v>
+        <v>-13.6</v>
       </c>
       <c r="D212" t="n">
-        <v>1088.7389</v>
+        <v>260.3808</v>
       </c>
       <c r="E212" t="n">
-        <v>-12.6</v>
+        <v>-11.2</v>
       </c>
       <c r="F212" t="n">
-        <v>4556.3944</v>
+        <v>960.4158</v>
       </c>
       <c r="G212" t="n">
-        <v>-11.3</v>
+        <v>-13</v>
+      </c>
+      <c r="H212" t="n">
+        <v>329.8554999999999</v>
+      </c>
+      <c r="I212" t="n">
+        <v>125.1651</v>
+      </c>
+      <c r="J212" t="n">
+        <v>455.0206</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>4040.6055</v>
+        <v>1080.9824</v>
       </c>
       <c r="C213" t="n">
-        <v>-13.7</v>
+        <v>-7.2</v>
       </c>
       <c r="D213" t="n">
-        <v>1288.3577</v>
+        <v>331.3299</v>
       </c>
       <c r="E213" t="n">
-        <v>-19.2</v>
+        <v>-23.9</v>
       </c>
       <c r="F213" t="n">
-        <v>5328.9632</v>
+        <v>1412.3123</v>
       </c>
       <c r="G213" t="n">
-        <v>-15.1</v>
+        <v>-11.7</v>
+      </c>
+      <c r="H213" t="n">
+        <v>380.9474000000001</v>
+      </c>
+      <c r="I213" t="n">
+        <v>70.94909999999999</v>
+      </c>
+      <c r="J213" t="n">
+        <v>451.8965000000001</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>370.1795</v>
+        <v>1394.6474</v>
       </c>
       <c r="C214" t="n">
-        <v>-8.6</v>
+        <v>-9.9</v>
       </c>
       <c r="D214" t="n">
-        <v>135.2157</v>
+        <v>443.261</v>
       </c>
       <c r="E214" t="n">
-        <v>1.1</v>
+        <v>-19.2</v>
       </c>
       <c r="F214" t="n">
-        <v>505.3952</v>
+        <v>1837.9084</v>
       </c>
       <c r="G214" t="n">
-        <v>-6.2</v>
+        <v>-12.3</v>
+      </c>
+      <c r="H214" t="n">
+        <v>313.665</v>
+      </c>
+      <c r="I214" t="n">
+        <v>111.9311</v>
+      </c>
+      <c r="J214" t="n">
+        <v>425.5961</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>700.035</v>
+        <v>1876.5991</v>
       </c>
       <c r="C215" t="n">
-        <v>-13.6</v>
+        <v>-11.6</v>
       </c>
       <c r="D215" t="n">
-        <v>260.3808</v>
+        <v>606.6124</v>
       </c>
       <c r="E215" t="n">
-        <v>-11.2</v>
+        <v>-15</v>
       </c>
       <c r="F215" t="n">
-        <v>960.4158</v>
+        <v>2483.2115</v>
       </c>
       <c r="G215" t="n">
-        <v>-13</v>
+        <v>-12.5</v>
+      </c>
+      <c r="H215" t="n">
+        <v>481.9516999999998</v>
+      </c>
+      <c r="I215" t="n">
+        <v>163.3514</v>
+      </c>
+      <c r="J215" t="n">
+        <v>645.3030999999999</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1080.9824</v>
+        <v>2140.4008</v>
       </c>
       <c r="C216" t="n">
-        <v>-7.2</v>
+        <v>-11.6</v>
       </c>
       <c r="D216" t="n">
-        <v>331.3299</v>
+        <v>694.3199</v>
       </c>
       <c r="E216" t="n">
-        <v>-23.9</v>
+        <v>-18</v>
       </c>
       <c r="F216" t="n">
-        <v>1412.3123</v>
+        <v>2834.7207</v>
       </c>
       <c r="G216" t="n">
-        <v>-11.7</v>
+        <v>-13.3</v>
+      </c>
+      <c r="H216" t="n">
+        <v>263.8017</v>
+      </c>
+      <c r="I216" t="n">
+        <v>87.70749999999998</v>
+      </c>
+      <c r="J216" t="n">
+        <v>351.5092</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1394.6474</v>
+        <v>2438.7303</v>
       </c>
       <c r="C217" t="n">
-        <v>-9.9</v>
+        <v>-10.5</v>
       </c>
       <c r="D217" t="n">
-        <v>443.261</v>
+        <v>788.3416</v>
       </c>
       <c r="E217" t="n">
-        <v>-19.2</v>
+        <v>-15.3</v>
       </c>
       <c r="F217" t="n">
-        <v>1837.9084</v>
+        <v>3227.0719</v>
       </c>
       <c r="G217" t="n">
-        <v>-12.3</v>
+        <v>-11.7</v>
+      </c>
+      <c r="H217" t="n">
+        <v>298.3295000000003</v>
+      </c>
+      <c r="I217" t="n">
+        <v>94.02170000000001</v>
+      </c>
+      <c r="J217" t="n">
+        <v>392.3512000000001</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1876.5991</v>
+        <v>2855.9152</v>
       </c>
       <c r="C218" t="n">
-        <v>-11.6</v>
+        <v>-10.5</v>
       </c>
       <c r="D218" t="n">
-        <v>606.6124</v>
+        <v>898.7306</v>
       </c>
       <c r="E218" t="n">
-        <v>-15</v>
+        <v>-13.1</v>
       </c>
       <c r="F218" t="n">
-        <v>2483.2115</v>
+        <v>3754.6458</v>
       </c>
       <c r="G218" t="n">
-        <v>-12.5</v>
+        <v>-11.1</v>
+      </c>
+      <c r="H218" t="n">
+        <v>417.1848999999997</v>
+      </c>
+      <c r="I218" t="n">
+        <v>110.389</v>
+      </c>
+      <c r="J218" t="n">
+        <v>527.5738999999999</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>2140.4008</v>
+        <v>3136.0518</v>
       </c>
       <c r="C219" t="n">
-        <v>-11.6</v>
+        <v>-10.8</v>
       </c>
       <c r="D219" t="n">
-        <v>694.3199</v>
+        <v>971.275</v>
       </c>
       <c r="E219" t="n">
-        <v>-18</v>
+        <v>-13.5</v>
       </c>
       <c r="F219" t="n">
-        <v>2834.7207</v>
+        <v>4107.3268</v>
       </c>
       <c r="G219" t="n">
-        <v>-13.3</v>
+        <v>-11.5</v>
+      </c>
+      <c r="H219" t="n">
+        <v>280.1366000000003</v>
+      </c>
+      <c r="I219" t="n">
+        <v>72.5444</v>
+      </c>
+      <c r="J219" t="n">
+        <v>352.681</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>2438.7303</v>
+        <v>3467.6555</v>
       </c>
       <c r="C220" t="n">
-        <v>-10.5</v>
+        <v>-10.9</v>
       </c>
       <c r="D220" t="n">
-        <v>788.3416</v>
+        <v>1088.7389</v>
       </c>
       <c r="E220" t="n">
-        <v>-15.3</v>
+        <v>-12.6</v>
       </c>
       <c r="F220" t="n">
-        <v>3227.0719</v>
+        <v>4556.3944</v>
       </c>
       <c r="G220" t="n">
-        <v>-11.7</v>
+        <v>-11.3</v>
+      </c>
+      <c r="H220" t="n">
+        <v>331.6036999999997</v>
+      </c>
+      <c r="I220" t="n">
+        <v>117.4639000000001</v>
+      </c>
+      <c r="J220" t="n">
+        <v>449.0676000000003</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>2855.9152</v>
+        <v>4040.6055</v>
       </c>
       <c r="C221" t="n">
-        <v>-10.5</v>
+        <v>-13.7</v>
       </c>
       <c r="D221" t="n">
-        <v>898.7306</v>
+        <v>1288.3577</v>
       </c>
       <c r="E221" t="n">
-        <v>-13.1</v>
+        <v>-19.2</v>
       </c>
       <c r="F221" t="n">
-        <v>3754.6458</v>
+        <v>5328.9632</v>
       </c>
       <c r="G221" t="n">
-        <v>-11.1</v>
+        <v>-15.1</v>
+      </c>
+      <c r="H221" t="n">
+        <v>572.9500000000003</v>
+      </c>
+      <c r="I221" t="n">
+        <v>199.6188</v>
+      </c>
+      <c r="J221" t="n">
+        <v>772.5688</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>2489.5424</v>
+        <v>161.5182</v>
       </c>
       <c r="C222" t="n">
-        <v>-20.6</v>
+        <v>-56.4</v>
       </c>
       <c r="D222" t="n">
-        <v>1092.335</v>
+        <v>138.9389</v>
       </c>
       <c r="E222" t="n">
-        <v>12.5</v>
+        <v>2.8</v>
       </c>
       <c r="F222" t="n">
-        <v>3581.8774</v>
+        <v>300.4571</v>
       </c>
       <c r="G222" t="n">
-        <v>-12.8</v>
+        <v>-40.6</v>
+      </c>
+      <c r="H222" t="n">
+        <v>161.5182</v>
+      </c>
+      <c r="I222" t="n">
+        <v>138.9389</v>
+      </c>
+      <c r="J222" t="n">
+        <v>300.4571</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>2853.5172</v>
+        <v>384.3567</v>
       </c>
       <c r="C223" t="n">
-        <v>-17.7</v>
+        <v>-45.1</v>
       </c>
       <c r="D223" t="n">
-        <v>1217.1055</v>
+        <v>222.5606</v>
       </c>
       <c r="E223" t="n">
-        <v>11.8</v>
+        <v>-14.5</v>
       </c>
       <c r="F223" t="n">
-        <v>4070.6227</v>
+        <v>606.9173</v>
       </c>
       <c r="G223" t="n">
-        <v>-10.7</v>
+        <v>-36.8</v>
+      </c>
+      <c r="H223" t="n">
+        <v>222.8385</v>
+      </c>
+      <c r="I223" t="n">
+        <v>83.6217</v>
+      </c>
+      <c r="J223" t="n">
+        <v>306.4601999999999</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>3576.0397</v>
+        <v>547.8414</v>
       </c>
       <c r="C224" t="n">
-        <v>-11.5</v>
+        <v>-49.3</v>
       </c>
       <c r="D224" t="n">
-        <v>1471.43</v>
+        <v>335.2901</v>
       </c>
       <c r="E224" t="n">
-        <v>14.2</v>
+        <v>1.2</v>
       </c>
       <c r="F224" t="n">
-        <v>5047.4697</v>
+        <v>883.1315</v>
       </c>
       <c r="G224" t="n">
-        <v>-5.3</v>
+        <v>-37.5</v>
+      </c>
+      <c r="H224" t="n">
+        <v>163.4847</v>
+      </c>
+      <c r="I224" t="n">
+        <v>112.7295</v>
+      </c>
+      <c r="J224" t="n">
+        <v>276.2142</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>161.5182</v>
+        <v>754.739</v>
       </c>
       <c r="C225" t="n">
-        <v>-56.4</v>
+        <v>-45.9</v>
       </c>
       <c r="D225" t="n">
-        <v>138.9389</v>
+        <v>434.4866</v>
       </c>
       <c r="E225" t="n">
-        <v>2.8</v>
+        <v>-2</v>
       </c>
       <c r="F225" t="n">
-        <v>300.4571</v>
+        <v>1189.2256</v>
       </c>
       <c r="G225" t="n">
-        <v>-40.6</v>
+        <v>-35.3</v>
+      </c>
+      <c r="H225" t="n">
+        <v>206.8976</v>
+      </c>
+      <c r="I225" t="n">
+        <v>99.19650000000001</v>
+      </c>
+      <c r="J225" t="n">
+        <v>306.0941</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>384.3567</v>
+        <v>1209.9615</v>
       </c>
       <c r="C226" t="n">
-        <v>-45.1</v>
+        <v>-35.5</v>
       </c>
       <c r="D226" t="n">
-        <v>222.5606</v>
+        <v>578.6884</v>
       </c>
       <c r="E226" t="n">
-        <v>-14.5</v>
+        <v>-4.6</v>
       </c>
       <c r="F226" t="n">
-        <v>606.9173</v>
+        <v>1788.6499</v>
       </c>
       <c r="G226" t="n">
-        <v>-36.8</v>
+        <v>-28</v>
+      </c>
+      <c r="H226" t="n">
+        <v>455.2224999999999</v>
+      </c>
+      <c r="I226" t="n">
+        <v>144.2018</v>
+      </c>
+      <c r="J226" t="n">
+        <v>599.4242999999999</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>547.8414</v>
+        <v>1476.1669</v>
       </c>
       <c r="C227" t="n">
-        <v>-49.3</v>
+        <v>-31</v>
       </c>
       <c r="D227" t="n">
-        <v>335.2901</v>
+        <v>728.5638</v>
       </c>
       <c r="E227" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="F227" t="n">
-        <v>883.1315</v>
+        <v>2204.7307</v>
       </c>
       <c r="G227" t="n">
-        <v>-37.5</v>
+        <v>-22.2</v>
+      </c>
+      <c r="H227" t="n">
+        <v>266.2054000000001</v>
+      </c>
+      <c r="I227" t="n">
+        <v>149.8754</v>
+      </c>
+      <c r="J227" t="n">
+        <v>416.0808000000002</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>754.739</v>
+        <v>1842.5221</v>
       </c>
       <c r="C228" t="n">
-        <v>-45.9</v>
+        <v>-24.4</v>
       </c>
       <c r="D228" t="n">
-        <v>434.4866</v>
+        <v>803.9026</v>
       </c>
       <c r="E228" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F228" t="n">
-        <v>1189.2256</v>
+        <v>2646.4247</v>
       </c>
       <c r="G228" t="n">
-        <v>-35.3</v>
+        <v>-18</v>
+      </c>
+      <c r="H228" t="n">
+        <v>366.3552</v>
+      </c>
+      <c r="I228" t="n">
+        <v>75.33879999999999</v>
+      </c>
+      <c r="J228" t="n">
+        <v>441.694</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1209.9615</v>
+        <v>2172.0616</v>
       </c>
       <c r="C229" t="n">
-        <v>-35.5</v>
+        <v>-23.9</v>
       </c>
       <c r="D229" t="n">
-        <v>578.6884</v>
+        <v>992.3594000000001</v>
       </c>
       <c r="E229" t="n">
-        <v>-4.6</v>
+        <v>10.4</v>
       </c>
       <c r="F229" t="n">
-        <v>1788.6499</v>
+        <v>3164.421</v>
       </c>
       <c r="G229" t="n">
-        <v>-28</v>
+        <v>-15.7</v>
+      </c>
+      <c r="H229" t="n">
+        <v>329.5395000000001</v>
+      </c>
+      <c r="I229" t="n">
+        <v>188.4568</v>
+      </c>
+      <c r="J229" t="n">
+        <v>517.9962999999998</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1476.1669</v>
+        <v>2489.5424</v>
       </c>
       <c r="C230" t="n">
-        <v>-31</v>
+        <v>-20.6</v>
       </c>
       <c r="D230" t="n">
-        <v>728.5638</v>
+        <v>1092.335</v>
       </c>
       <c r="E230" t="n">
-        <v>4.9</v>
+        <v>12.5</v>
       </c>
       <c r="F230" t="n">
-        <v>2204.7307</v>
+        <v>3581.8774</v>
       </c>
       <c r="G230" t="n">
-        <v>-22.2</v>
+        <v>-12.8</v>
+      </c>
+      <c r="H230" t="n">
+        <v>317.4807999999998</v>
+      </c>
+      <c r="I230" t="n">
+        <v>99.97559999999999</v>
+      </c>
+      <c r="J230" t="n">
+        <v>417.4564</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1842.5221</v>
+        <v>2853.5172</v>
       </c>
       <c r="C231" t="n">
-        <v>-24.4</v>
+        <v>-17.7</v>
       </c>
       <c r="D231" t="n">
-        <v>803.9026</v>
+        <v>1217.1055</v>
       </c>
       <c r="E231" t="n">
-        <v>2</v>
+        <v>11.8</v>
       </c>
       <c r="F231" t="n">
-        <v>2646.4247</v>
+        <v>4070.6227</v>
       </c>
       <c r="G231" t="n">
-        <v>-18</v>
+        <v>-10.7</v>
+      </c>
+      <c r="H231" t="n">
+        <v>363.9748</v>
+      </c>
+      <c r="I231" t="n">
+        <v>124.7704999999999</v>
+      </c>
+      <c r="J231" t="n">
+        <v>488.7453</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2172.0616</v>
+        <v>3576.0397</v>
       </c>
       <c r="C232" t="n">
-        <v>-23.9</v>
+        <v>-11.5</v>
       </c>
       <c r="D232" t="n">
-        <v>992.3594000000001</v>
+        <v>1471.43</v>
       </c>
       <c r="E232" t="n">
-        <v>10.4</v>
+        <v>14.2</v>
       </c>
       <c r="F232" t="n">
-        <v>3164.421</v>
+        <v>5047.4697</v>
       </c>
       <c r="G232" t="n">
-        <v>-15.7</v>
+        <v>-5.3</v>
+      </c>
+      <c r="H232" t="n">
+        <v>722.5225</v>
+      </c>
+      <c r="I232" t="n">
+        <v>254.3245000000002</v>
+      </c>
+      <c r="J232" t="n">
+        <v>976.8469999999998</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>2393.7505</v>
+        <v>257.5843</v>
       </c>
       <c r="C233" t="n">
-        <v>-3.8</v>
+        <v>59.5</v>
       </c>
       <c r="D233" t="n">
-        <v>1132.3081</v>
+        <v>143.1883</v>
       </c>
       <c r="E233" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="F233" t="n">
-        <v>3526.0586</v>
+        <v>400.7726</v>
       </c>
       <c r="G233" t="n">
-        <v>-1.6</v>
+        <v>33.4</v>
+      </c>
+      <c r="H233" t="n">
+        <v>257.5843</v>
+      </c>
+      <c r="I233" t="n">
+        <v>143.1883</v>
+      </c>
+      <c r="J233" t="n">
+        <v>400.7726</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>2678.7521</v>
+        <v>566.8415</v>
       </c>
       <c r="C234" t="n">
-        <v>-6.1</v>
+        <v>47.5</v>
       </c>
       <c r="D234" t="n">
-        <v>1270.9019</v>
+        <v>307.3107</v>
       </c>
       <c r="E234" t="n">
-        <v>4.4</v>
+        <v>38.1</v>
       </c>
       <c r="F234" t="n">
-        <v>3949.654</v>
+        <v>874.1522</v>
       </c>
       <c r="G234" t="n">
-        <v>-3</v>
+        <v>44</v>
+      </c>
+      <c r="H234" t="n">
+        <v>309.2572</v>
+      </c>
+      <c r="I234" t="n">
+        <v>164.1224</v>
+      </c>
+      <c r="J234" t="n">
+        <v>473.3796</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>3227.0667</v>
+        <v>774.5886</v>
       </c>
       <c r="C235" t="n">
-        <v>-9.800000000000001</v>
+        <v>41.4</v>
       </c>
       <c r="D235" t="n">
-        <v>1474.3959</v>
+        <v>389.8824</v>
       </c>
       <c r="E235" t="n">
-        <v>0.2</v>
+        <v>16.3</v>
       </c>
       <c r="F235" t="n">
-        <v>4701.4626</v>
+        <v>1164.471</v>
       </c>
       <c r="G235" t="n">
-        <v>-6.9</v>
+        <v>31.9</v>
+      </c>
+      <c r="H235" t="n">
+        <v>207.7471</v>
+      </c>
+      <c r="I235" t="n">
+        <v>82.57170000000002</v>
+      </c>
+      <c r="J235" t="n">
+        <v>290.3188</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>257.5843</v>
+        <v>995.0029</v>
       </c>
       <c r="C236" t="n">
-        <v>59.5</v>
+        <v>31.8</v>
       </c>
       <c r="D236" t="n">
-        <v>143.1883</v>
+        <v>489.8022</v>
       </c>
       <c r="E236" t="n">
-        <v>3.1</v>
+        <v>12.7</v>
       </c>
       <c r="F236" t="n">
-        <v>400.7726</v>
+        <v>1484.8051</v>
       </c>
       <c r="G236" t="n">
-        <v>33.4</v>
+        <v>24.9</v>
+      </c>
+      <c r="H236" t="n">
+        <v>220.4142999999999</v>
+      </c>
+      <c r="I236" t="n">
+        <v>99.91980000000001</v>
+      </c>
+      <c r="J236" t="n">
+        <v>320.3341</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>566.8415</v>
+        <v>1356.8748</v>
       </c>
       <c r="C237" t="n">
-        <v>47.5</v>
+        <v>12.1</v>
       </c>
       <c r="D237" t="n">
-        <v>307.3107</v>
+        <v>622.7138</v>
       </c>
       <c r="E237" t="n">
-        <v>38.1</v>
+        <v>7.6</v>
       </c>
       <c r="F237" t="n">
-        <v>874.1522</v>
+        <v>1979.5886</v>
       </c>
       <c r="G237" t="n">
-        <v>44</v>
+        <v>10.7</v>
+      </c>
+      <c r="H237" t="n">
+        <v>361.8719000000001</v>
+      </c>
+      <c r="I237" t="n">
+        <v>132.9116</v>
+      </c>
+      <c r="J237" t="n">
+        <v>494.7835</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>774.5886</v>
+        <v>1629.4631</v>
       </c>
       <c r="C238" t="n">
-        <v>41.4</v>
+        <v>10.4</v>
       </c>
       <c r="D238" t="n">
-        <v>389.8824</v>
+        <v>775.9455</v>
       </c>
       <c r="E238" t="n">
-        <v>16.3</v>
+        <v>6.5</v>
       </c>
       <c r="F238" t="n">
-        <v>1164.471</v>
+        <v>2405.4086</v>
       </c>
       <c r="G238" t="n">
-        <v>31.9</v>
+        <v>9.1</v>
+      </c>
+      <c r="H238" t="n">
+        <v>272.5882999999999</v>
+      </c>
+      <c r="I238" t="n">
+        <v>153.2317</v>
+      </c>
+      <c r="J238" t="n">
+        <v>425.8200000000002</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>995.0029</v>
+        <v>1880.7133</v>
       </c>
       <c r="C239" t="n">
-        <v>31.8</v>
+        <v>2.1</v>
       </c>
       <c r="D239" t="n">
-        <v>489.8022</v>
+        <v>857.6052</v>
       </c>
       <c r="E239" t="n">
-        <v>12.7</v>
+        <v>6.7</v>
       </c>
       <c r="F239" t="n">
-        <v>1484.8051</v>
+        <v>2738.3185</v>
       </c>
       <c r="G239" t="n">
-        <v>24.9</v>
+        <v>3.5</v>
+      </c>
+      <c r="H239" t="n">
+        <v>251.2501999999999</v>
+      </c>
+      <c r="I239" t="n">
+        <v>81.65969999999993</v>
+      </c>
+      <c r="J239" t="n">
+        <v>332.9098999999997</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1356.8748</v>
+        <v>2196.6171</v>
       </c>
       <c r="C240" t="n">
-        <v>12.1</v>
+        <v>1.1</v>
       </c>
       <c r="D240" t="n">
-        <v>622.7138</v>
+        <v>982.4139</v>
       </c>
       <c r="E240" t="n">
-        <v>7.6</v>
+        <v>-1</v>
       </c>
       <c r="F240" t="n">
-        <v>1979.5886</v>
+        <v>3179.031</v>
       </c>
       <c r="G240" t="n">
-        <v>10.7</v>
+        <v>0.5</v>
+      </c>
+      <c r="H240" t="n">
+        <v>315.9038</v>
+      </c>
+      <c r="I240" t="n">
+        <v>124.8087</v>
+      </c>
+      <c r="J240" t="n">
+        <v>440.7125000000001</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1629.4631</v>
+        <v>2393.7505</v>
       </c>
       <c r="C241" t="n">
-        <v>10.4</v>
+        <v>-3.8</v>
       </c>
       <c r="D241" t="n">
-        <v>775.9455</v>
+        <v>1132.3081</v>
       </c>
       <c r="E241" t="n">
-        <v>6.5</v>
+        <v>3.7</v>
       </c>
       <c r="F241" t="n">
-        <v>2405.4086</v>
+        <v>3526.0586</v>
       </c>
       <c r="G241" t="n">
-        <v>9.1</v>
+        <v>-1.6</v>
+      </c>
+      <c r="H241" t="n">
+        <v>197.1334000000002</v>
+      </c>
+      <c r="I241" t="n">
+        <v>149.8942</v>
+      </c>
+      <c r="J241" t="n">
+        <v>347.0275999999999</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>1880.7133</v>
+        <v>2678.7521</v>
       </c>
       <c r="C242" t="n">
-        <v>2.1</v>
+        <v>-6.1</v>
       </c>
       <c r="D242" t="n">
-        <v>857.6052</v>
+        <v>1270.9019</v>
       </c>
       <c r="E242" t="n">
-        <v>6.7</v>
+        <v>4.4</v>
       </c>
       <c r="F242" t="n">
-        <v>2738.3185</v>
+        <v>3949.654</v>
       </c>
       <c r="G242" t="n">
-        <v>3.5</v>
+        <v>-3</v>
+      </c>
+      <c r="H242" t="n">
+        <v>285.0016000000001</v>
+      </c>
+      <c r="I242" t="n">
+        <v>138.5938000000001</v>
+      </c>
+      <c r="J242" t="n">
+        <v>423.5954000000002</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2196.6171</v>
+        <v>3227.0667</v>
       </c>
       <c r="C243" t="n">
-        <v>1.1</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="D243" t="n">
-        <v>982.4139</v>
+        <v>1474.3959</v>
       </c>
       <c r="E243" t="n">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="F243" t="n">
-        <v>3179.031</v>
+        <v>4701.4626</v>
       </c>
       <c r="G243" t="n">
-        <v>0.5</v>
+        <v>-6.9</v>
+      </c>
+      <c r="H243" t="n">
+        <v>548.3145999999997</v>
+      </c>
+      <c r="I243" t="n">
+        <v>203.4939999999999</v>
+      </c>
+      <c r="J243" t="n">
+        <v>751.8085999999998</v>
       </c>
     </row>
   </sheetData>
